--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C9CAF-FF49-6645-AC0E-90632174CB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44898C-9894-AC42-BC61-5E42973FFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>名称</t>
   </si>
@@ -119,6 +119,16 @@
 原因是因为左移后退回cur-b处时，无法覆盖前进到cur-b再后退到cur-2b的情况。
 或者说，放入set的条件是这个点的下一步跳跃的所有可能性均已加入后续的遍历中，但如果向左跳至某点，这点的再往左跳这一可能性没有加入后续的遍历中，因此不能把向左跳的点放入set中</t>
   </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>Bit mask, BFS, Graph</t>
+  </si>
+  <si>
+    <t>对比字符串开销比较大，可以将字符串通过位运算变成int，
+再进行比较。</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,23 +157,43 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -193,14 +223,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +251,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,14 +582,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +623,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,7 +655,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -645,7 +687,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15">
+    <row r="4" spans="1:26">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -673,7 +715,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15">
+    <row r="5" spans="1:26">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -701,7 +743,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15">
+    <row r="6" spans="1:26">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -729,7 +771,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15">
+    <row r="7" spans="1:26">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -757,7 +799,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15">
+    <row r="8" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -785,7 +827,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15">
+    <row r="9" spans="1:26">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -813,7 +855,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15">
+    <row r="10" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -841,7 +883,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -869,7 +911,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15">
+    <row r="12" spans="1:26">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -897,7 +939,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15">
+    <row r="13" spans="1:26">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -925,7 +967,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15">
+    <row r="14" spans="1:26">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -953,7 +995,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15">
+    <row r="15" spans="1:26">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -981,7 +1023,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15">
+    <row r="16" spans="1:26">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1009,7 +1051,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15">
+    <row r="17" spans="1:26">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1037,7 +1079,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15">
+    <row r="18" spans="1:26">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1065,7 +1107,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15">
+    <row r="19" spans="1:26">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1093,7 +1135,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15">
+    <row r="20" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1121,7 +1163,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15">
+    <row r="21" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1149,7 +1191,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15">
+    <row r="22" spans="1:26">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1177,7 +1219,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15">
+    <row r="23" spans="1:26">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1205,7 +1247,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15">
+    <row r="24" spans="1:26">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1233,7 +1275,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15">
+    <row r="25" spans="1:26">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1261,7 +1303,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15">
+    <row r="26" spans="1:26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1289,7 +1331,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15">
+    <row r="27" spans="1:26">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1317,7 +1359,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15">
+    <row r="28" spans="1:26">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1345,7 +1387,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15">
+    <row r="29" spans="1:26">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1373,7 +1415,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15">
+    <row r="30" spans="1:26">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1401,7 +1443,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15">
+    <row r="31" spans="1:26">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1429,7 +1471,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15">
+    <row r="32" spans="1:26">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1457,7 +1499,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15">
+    <row r="33" spans="1:26">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1485,7 +1527,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15">
+    <row r="34" spans="1:26">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1513,7 +1555,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15">
+    <row r="35" spans="1:26">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1541,7 +1583,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15">
+    <row r="36" spans="1:26">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1569,7 +1611,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15">
+    <row r="37" spans="1:26">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1597,7 +1639,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15">
+    <row r="38" spans="1:26">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1625,7 +1667,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15">
+    <row r="39" spans="1:26">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1653,7 +1695,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15">
+    <row r="40" spans="1:26">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1681,7 +1723,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15">
+    <row r="41" spans="1:26">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1709,7 +1751,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15">
+    <row r="42" spans="1:26">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1737,7 +1779,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15">
+    <row r="43" spans="1:26">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1765,7 +1807,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15">
+    <row r="44" spans="1:26">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1793,7 +1835,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15">
+    <row r="45" spans="1:26">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1821,7 +1863,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15">
+    <row r="46" spans="1:26">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1849,7 +1891,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15">
+    <row r="47" spans="1:26">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1877,7 +1919,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15">
+    <row r="48" spans="1:26">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1905,7 +1947,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15">
+    <row r="49" spans="1:26">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1933,7 +1975,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15">
+    <row r="50" spans="1:26">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1961,7 +2003,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15">
+    <row r="51" spans="1:26">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1989,7 +2031,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15">
+    <row r="52" spans="1:26">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2017,7 +2059,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15">
+    <row r="53" spans="1:26">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2045,7 +2087,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15">
+    <row r="54" spans="1:26">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2073,7 +2115,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15">
+    <row r="55" spans="1:26">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2101,7 +2143,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2129,7 +2171,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15">
+    <row r="57" spans="1:26">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2157,7 +2199,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2185,7 +2227,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2213,7 +2255,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2241,7 +2283,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2269,7 +2311,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2297,7 +2339,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2325,7 +2367,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2353,7 +2395,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2381,7 +2423,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2409,7 +2451,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2437,7 +2479,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2465,7 +2507,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2493,7 +2535,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15">
+    <row r="70" spans="1:26">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2521,7 +2563,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15">
+    <row r="71" spans="1:26">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2549,7 +2591,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15">
+    <row r="72" spans="1:26">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2577,7 +2619,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15">
+    <row r="73" spans="1:26">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2605,7 +2647,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15">
+    <row r="74" spans="1:26">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2633,7 +2675,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15">
+    <row r="75" spans="1:26">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2661,7 +2703,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15">
+    <row r="76" spans="1:26">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2689,7 +2731,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15">
+    <row r="77" spans="1:26">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2717,7 +2759,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15">
+    <row r="78" spans="1:26">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2745,7 +2787,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2773,7 +2815,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15">
+    <row r="80" spans="1:26">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2801,7 +2843,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15">
+    <row r="81" spans="1:26">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2829,7 +2871,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15">
+    <row r="82" spans="1:26">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2857,7 +2899,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15">
+    <row r="83" spans="1:26">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2885,7 +2927,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15">
+    <row r="84" spans="1:26">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2913,7 +2955,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15">
+    <row r="85" spans="1:26">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2941,7 +2983,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
+    <row r="86" spans="1:26">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2969,7 +3011,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15">
+    <row r="87" spans="1:26">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2997,7 +3039,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15">
+    <row r="88" spans="1:26">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3025,7 +3067,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15">
+    <row r="89" spans="1:26">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3053,7 +3095,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15">
+    <row r="90" spans="1:26">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3081,7 +3123,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15">
+    <row r="91" spans="1:26">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3109,7 +3151,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15">
+    <row r="92" spans="1:26">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3137,7 +3179,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15">
+    <row r="93" spans="1:26">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3165,7 +3207,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15">
+    <row r="94" spans="1:26">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3193,7 +3235,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15">
+    <row r="95" spans="1:26">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3221,7 +3263,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15">
+    <row r="96" spans="1:26">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3249,7 +3291,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15">
+    <row r="97" spans="1:26">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3277,7 +3319,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15">
+    <row r="98" spans="1:26">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3305,7 +3347,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15">
+    <row r="99" spans="1:26">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3333,7 +3375,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15">
+    <row r="100" spans="1:26">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3361,7 +3403,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15">
+    <row r="101" spans="1:26">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3389,7 +3431,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15">
+    <row r="102" spans="1:26">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3417,7 +3459,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15">
+    <row r="103" spans="1:26">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3445,7 +3487,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15">
+    <row r="104" spans="1:26">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3473,7 +3515,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15">
+    <row r="105" spans="1:26">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3501,7 +3543,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15">
+    <row r="106" spans="1:26">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3529,7 +3571,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15">
+    <row r="107" spans="1:26">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3557,7 +3599,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15">
+    <row r="108" spans="1:26">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3585,7 +3627,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15">
+    <row r="109" spans="1:26">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3613,7 +3655,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15">
+    <row r="110" spans="1:26">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3641,7 +3683,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15">
+    <row r="111" spans="1:26">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3669,7 +3711,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15">
+    <row r="112" spans="1:26">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3697,7 +3739,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15">
+    <row r="113" spans="1:26">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3725,7 +3767,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15">
+    <row r="114" spans="1:26">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3753,7 +3795,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15">
+    <row r="115" spans="1:26">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3781,7 +3823,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15">
+    <row r="116" spans="1:26">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3809,7 +3851,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15">
+    <row r="117" spans="1:26">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3837,7 +3879,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15">
+    <row r="118" spans="1:26">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3865,7 +3907,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15">
+    <row r="119" spans="1:26">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3893,7 +3935,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15">
+    <row r="120" spans="1:26">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3921,7 +3963,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15">
+    <row r="121" spans="1:26">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3949,7 +3991,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15">
+    <row r="122" spans="1:26">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3977,7 +4019,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15">
+    <row r="123" spans="1:26">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4005,7 +4047,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15">
+    <row r="124" spans="1:26">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4033,7 +4075,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15">
+    <row r="125" spans="1:26">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4061,7 +4103,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15">
+    <row r="126" spans="1:26">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4089,7 +4131,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15">
+    <row r="127" spans="1:26">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4117,7 +4159,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15">
+    <row r="128" spans="1:26">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4145,7 +4187,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15">
+    <row r="129" spans="1:26">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4173,7 +4215,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15">
+    <row r="130" spans="1:26">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4201,7 +4243,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15">
+    <row r="131" spans="1:26">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4229,7 +4271,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15">
+    <row r="132" spans="1:26">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4257,7 +4299,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15">
+    <row r="133" spans="1:26">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4285,7 +4327,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15">
+    <row r="134" spans="1:26">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4313,7 +4355,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15">
+    <row r="135" spans="1:26">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4341,7 +4383,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15">
+    <row r="136" spans="1:26">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4369,7 +4411,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15">
+    <row r="137" spans="1:26">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4397,7 +4439,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15">
+    <row r="138" spans="1:26">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4425,7 +4467,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15">
+    <row r="139" spans="1:26">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4453,7 +4495,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15">
+    <row r="140" spans="1:26">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4481,7 +4523,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15">
+    <row r="141" spans="1:26">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4509,7 +4551,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15">
+    <row r="142" spans="1:26">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4537,7 +4579,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15">
+    <row r="143" spans="1:26">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4565,7 +4607,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15">
+    <row r="144" spans="1:26">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4593,7 +4635,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15">
+    <row r="145" spans="1:26">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4621,7 +4663,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15">
+    <row r="146" spans="1:26">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4649,7 +4691,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15">
+    <row r="147" spans="1:26">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4677,7 +4719,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15">
+    <row r="148" spans="1:26">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4705,7 +4747,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15">
+    <row r="149" spans="1:26">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4733,7 +4775,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15">
+    <row r="150" spans="1:26">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4761,7 +4803,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15">
+    <row r="151" spans="1:26">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4789,7 +4831,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15">
+    <row r="152" spans="1:26">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4817,7 +4859,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15">
+    <row r="153" spans="1:26">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4845,7 +4887,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15">
+    <row r="154" spans="1:26">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4873,7 +4915,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15">
+    <row r="155" spans="1:26">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4901,7 +4943,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15">
+    <row r="156" spans="1:26">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4929,7 +4971,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15">
+    <row r="157" spans="1:26">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4957,7 +4999,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15">
+    <row r="158" spans="1:26">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4985,7 +5027,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15">
+    <row r="159" spans="1:26">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5013,7 +5055,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15">
+    <row r="160" spans="1:26">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5041,7 +5083,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15">
+    <row r="161" spans="1:26">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5069,7 +5111,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15">
+    <row r="162" spans="1:26">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5097,7 +5139,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15">
+    <row r="163" spans="1:26">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5125,7 +5167,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15">
+    <row r="164" spans="1:26">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5153,7 +5195,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15">
+    <row r="165" spans="1:26">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5181,7 +5223,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15">
+    <row r="166" spans="1:26">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5209,7 +5251,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15">
+    <row r="167" spans="1:26">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5237,7 +5279,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15">
+    <row r="168" spans="1:26">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5265,7 +5307,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15">
+    <row r="169" spans="1:26">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5293,7 +5335,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15">
+    <row r="170" spans="1:26">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5321,7 +5363,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15">
+    <row r="171" spans="1:26">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5349,7 +5391,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15">
+    <row r="172" spans="1:26">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5377,7 +5419,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15">
+    <row r="173" spans="1:26">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5405,7 +5447,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15">
+    <row r="174" spans="1:26">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5433,7 +5475,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15">
+    <row r="175" spans="1:26">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5461,7 +5503,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15">
+    <row r="176" spans="1:26">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5489,7 +5531,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15">
+    <row r="177" spans="1:26">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5517,7 +5559,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15">
+    <row r="178" spans="1:26">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5545,7 +5587,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15">
+    <row r="179" spans="1:26">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5573,7 +5615,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15">
+    <row r="180" spans="1:26">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5601,7 +5643,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15">
+    <row r="181" spans="1:26">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5629,7 +5671,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15">
+    <row r="182" spans="1:26">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5657,7 +5699,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15">
+    <row r="183" spans="1:26">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5685,7 +5727,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15">
+    <row r="184" spans="1:26">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5713,7 +5755,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15">
+    <row r="185" spans="1:26">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5741,7 +5783,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15">
+    <row r="186" spans="1:26">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5769,7 +5811,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15">
+    <row r="187" spans="1:26">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5797,7 +5839,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15">
+    <row r="188" spans="1:26">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5825,7 +5867,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15">
+    <row r="189" spans="1:26">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5853,7 +5895,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15">
+    <row r="190" spans="1:26">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5881,7 +5923,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15">
+    <row r="191" spans="1:26">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5909,7 +5951,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15">
+    <row r="192" spans="1:26">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5937,7 +5979,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15">
+    <row r="193" spans="1:26">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5965,7 +6007,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15">
+    <row r="194" spans="1:26">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5993,7 +6035,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15">
+    <row r="195" spans="1:26">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6021,7 +6063,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15">
+    <row r="196" spans="1:26">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6049,7 +6091,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15">
+    <row r="197" spans="1:26">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6077,7 +6119,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15">
+    <row r="198" spans="1:26">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6105,7 +6147,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15">
+    <row r="199" spans="1:26">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6133,7 +6175,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15">
+    <row r="200" spans="1:26">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6173,14 +6215,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -6192,7 +6234,7 @@
     <col min="8" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6402,14 +6444,28 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:26" ht="28">
+      <c r="A6" s="10">
+        <v>433</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44662</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -6430,7 +6486,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
@@ -6458,7 +6514,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="2"/>
@@ -6486,7 +6542,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
@@ -6514,7 +6570,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
@@ -6542,7 +6598,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
@@ -6570,7 +6626,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
@@ -6598,7 +6654,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
@@ -6626,7 +6682,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
@@ -6654,7 +6710,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
@@ -6682,7 +6738,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
@@ -6710,7 +6766,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16">
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2"/>
@@ -6738,7 +6794,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2"/>
@@ -6766,7 +6822,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2"/>
@@ -6794,7 +6850,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2"/>
@@ -6822,7 +6878,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2"/>
@@ -6850,7 +6906,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2"/>
@@ -6878,7 +6934,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2"/>
@@ -6906,7 +6962,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="2"/>
@@ -6934,7 +6990,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="2"/>
@@ -6962,7 +7018,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
       <c r="C26" s="2"/>
@@ -6990,7 +7046,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="2"/>
@@ -7018,7 +7074,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="C28" s="2"/>
@@ -7046,7 +7102,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="C29" s="2"/>
@@ -7074,7 +7130,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16">
       <c r="A30" s="2"/>
       <c r="B30" s="9"/>
       <c r="C30" s="2"/>
@@ -7102,7 +7158,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16">
       <c r="A31" s="2"/>
       <c r="B31" s="9"/>
       <c r="C31" s="2"/>
@@ -7130,7 +7186,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16">
       <c r="A32" s="2"/>
       <c r="B32" s="9"/>
       <c r="C32" s="2"/>
@@ -7158,7 +7214,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16">
       <c r="A33" s="2"/>
       <c r="B33" s="9"/>
       <c r="C33" s="2"/>
@@ -7186,7 +7242,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16">
       <c r="A34" s="2"/>
       <c r="B34" s="9"/>
       <c r="C34" s="2"/>
@@ -7214,7 +7270,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16">
       <c r="A35" s="2"/>
       <c r="B35" s="9"/>
       <c r="C35" s="2"/>
@@ -7242,7 +7298,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16">
       <c r="A36" s="2"/>
       <c r="B36" s="9"/>
       <c r="C36" s="2"/>
@@ -7270,7 +7326,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16">
       <c r="A37" s="2"/>
       <c r="B37" s="9"/>
       <c r="C37" s="2"/>
@@ -7298,7 +7354,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16">
       <c r="A38" s="2"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2"/>
@@ -7326,7 +7382,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16">
       <c r="A39" s="2"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2"/>
@@ -7354,7 +7410,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2"/>
@@ -7382,7 +7438,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="2"/>
@@ -7410,7 +7466,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
       <c r="C42" s="2"/>
@@ -7438,7 +7494,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="9"/>
       <c r="C43" s="2"/>
@@ -7466,7 +7522,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2"/>
@@ -7494,7 +7550,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
       <c r="C45" s="2"/>
@@ -7522,7 +7578,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
       <c r="C46" s="2"/>
@@ -7550,7 +7606,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="2"/>
@@ -7578,7 +7634,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
       <c r="C48" s="2"/>
@@ -7606,7 +7662,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="2"/>
@@ -7634,7 +7690,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
       <c r="C50" s="2"/>
@@ -7662,7 +7718,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
       <c r="C51" s="2"/>
@@ -7690,7 +7746,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
       <c r="C52" s="2"/>
@@ -7718,7 +7774,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16">
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -7746,7 +7802,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16">
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
       <c r="C54" s="2"/>
@@ -7774,7 +7830,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16">
       <c r="A55" s="2"/>
       <c r="B55" s="9"/>
       <c r="C55" s="2"/>
@@ -7802,7 +7858,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16">
       <c r="A56" s="2"/>
       <c r="B56" s="9"/>
       <c r="C56" s="2"/>
@@ -7830,7 +7886,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16">
       <c r="A57" s="2"/>
       <c r="B57" s="9"/>
       <c r="C57" s="2"/>
@@ -7858,7 +7914,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16">
       <c r="A58" s="2"/>
       <c r="B58" s="9"/>
       <c r="C58" s="2"/>
@@ -7886,7 +7942,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16">
       <c r="A59" s="2"/>
       <c r="B59" s="9"/>
       <c r="C59" s="2"/>
@@ -7914,7 +7970,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16">
       <c r="A60" s="2"/>
       <c r="B60" s="9"/>
       <c r="C60" s="2"/>
@@ -7942,7 +7998,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16">
       <c r="A61" s="2"/>
       <c r="B61" s="9"/>
       <c r="C61" s="2"/>
@@ -7970,7 +8026,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16">
       <c r="A62" s="2"/>
       <c r="B62" s="9"/>
       <c r="C62" s="2"/>
@@ -7998,7 +8054,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16">
       <c r="A63" s="2"/>
       <c r="B63" s="9"/>
       <c r="C63" s="2"/>
@@ -8026,7 +8082,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16">
       <c r="A64" s="2"/>
       <c r="B64" s="9"/>
       <c r="C64" s="2"/>
@@ -8054,7 +8110,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16">
       <c r="A65" s="2"/>
       <c r="B65" s="9"/>
       <c r="C65" s="2"/>
@@ -8082,7 +8138,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16">
       <c r="A66" s="2"/>
       <c r="B66" s="9"/>
       <c r="C66" s="2"/>
@@ -8110,7 +8166,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16">
       <c r="A67" s="2"/>
       <c r="B67" s="9"/>
       <c r="C67" s="2"/>
@@ -8138,7 +8194,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16">
       <c r="A68" s="2"/>
       <c r="B68" s="9"/>
       <c r="C68" s="2"/>
@@ -8166,7 +8222,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16">
       <c r="A69" s="2"/>
       <c r="B69" s="9"/>
       <c r="C69" s="2"/>
@@ -8194,7 +8250,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16">
       <c r="A70" s="2"/>
       <c r="B70" s="9"/>
       <c r="C70" s="2"/>
@@ -8222,7 +8278,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16">
       <c r="A71" s="2"/>
       <c r="B71" s="9"/>
       <c r="C71" s="2"/>
@@ -8250,7 +8306,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16">
       <c r="A72" s="2"/>
       <c r="B72" s="9"/>
       <c r="C72" s="2"/>
@@ -8278,7 +8334,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16">
       <c r="A73" s="2"/>
       <c r="B73" s="9"/>
       <c r="C73" s="2"/>
@@ -8306,7 +8362,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16">
       <c r="A74" s="2"/>
       <c r="B74" s="9"/>
       <c r="C74" s="2"/>
@@ -8334,7 +8390,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16">
       <c r="A75" s="2"/>
       <c r="B75" s="9"/>
       <c r="C75" s="2"/>
@@ -8362,7 +8418,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16">
       <c r="A76" s="2"/>
       <c r="B76" s="9"/>
       <c r="C76" s="2"/>
@@ -8390,7 +8446,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16">
       <c r="A77" s="2"/>
       <c r="B77" s="9"/>
       <c r="C77" s="2"/>
@@ -8418,7 +8474,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16">
       <c r="A78" s="2"/>
       <c r="B78" s="9"/>
       <c r="C78" s="2"/>
@@ -8446,7 +8502,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16">
       <c r="A79" s="2"/>
       <c r="B79" s="9"/>
       <c r="C79" s="2"/>
@@ -8474,7 +8530,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16">
       <c r="A80" s="2"/>
       <c r="B80" s="9"/>
       <c r="C80" s="2"/>
@@ -8502,7 +8558,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16">
       <c r="A81" s="2"/>
       <c r="B81" s="9"/>
       <c r="C81" s="2"/>
@@ -8530,7 +8586,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16">
       <c r="A82" s="2"/>
       <c r="B82" s="9"/>
       <c r="C82" s="2"/>
@@ -8558,7 +8614,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16">
       <c r="A83" s="2"/>
       <c r="B83" s="9"/>
       <c r="C83" s="2"/>
@@ -8586,7 +8642,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16">
       <c r="A84" s="2"/>
       <c r="B84" s="9"/>
       <c r="C84" s="2"/>
@@ -8614,7 +8670,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16">
       <c r="A85" s="2"/>
       <c r="B85" s="9"/>
       <c r="C85" s="2"/>
@@ -8642,7 +8698,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16">
       <c r="A86" s="2"/>
       <c r="B86" s="9"/>
       <c r="C86" s="2"/>
@@ -8670,7 +8726,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16">
       <c r="A87" s="2"/>
       <c r="B87" s="9"/>
       <c r="C87" s="2"/>
@@ -8698,7 +8754,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16">
       <c r="A88" s="2"/>
       <c r="B88" s="9"/>
       <c r="C88" s="2"/>
@@ -8726,7 +8782,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16">
       <c r="A89" s="2"/>
       <c r="B89" s="9"/>
       <c r="C89" s="2"/>
@@ -8754,7 +8810,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16">
       <c r="A90" s="2"/>
       <c r="B90" s="9"/>
       <c r="C90" s="2"/>
@@ -8782,7 +8838,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16">
       <c r="A91" s="2"/>
       <c r="B91" s="9"/>
       <c r="C91" s="2"/>
@@ -8810,7 +8866,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16">
       <c r="A92" s="2"/>
       <c r="B92" s="9"/>
       <c r="C92" s="2"/>
@@ -8838,7 +8894,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16">
       <c r="A93" s="2"/>
       <c r="B93" s="9"/>
       <c r="C93" s="2"/>
@@ -8866,7 +8922,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16">
       <c r="A94" s="2"/>
       <c r="B94" s="9"/>
       <c r="C94" s="2"/>
@@ -8894,7 +8950,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16">
       <c r="A95" s="2"/>
       <c r="B95" s="9"/>
       <c r="C95" s="2"/>
@@ -8922,7 +8978,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16">
       <c r="A96" s="2"/>
       <c r="B96" s="9"/>
       <c r="C96" s="2"/>
@@ -8950,7 +9006,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16">
       <c r="A97" s="2"/>
       <c r="B97" s="9"/>
       <c r="C97" s="2"/>
@@ -8978,7 +9034,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16">
       <c r="A98" s="2"/>
       <c r="B98" s="9"/>
       <c r="C98" s="2"/>
@@ -9006,7 +9062,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16">
       <c r="A99" s="2"/>
       <c r="B99" s="9"/>
       <c r="C99" s="2"/>
@@ -9034,7 +9090,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16">
       <c r="A100" s="2"/>
       <c r="B100" s="9"/>
       <c r="C100" s="2"/>
@@ -9062,7 +9118,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16">
       <c r="A101" s="2"/>
       <c r="B101" s="9"/>
       <c r="C101" s="2"/>
@@ -9090,7 +9146,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16">
       <c r="A102" s="2"/>
       <c r="B102" s="9"/>
       <c r="C102" s="2"/>
@@ -9118,7 +9174,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16">
       <c r="A103" s="2"/>
       <c r="B103" s="9"/>
       <c r="C103" s="2"/>
@@ -9146,7 +9202,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16">
       <c r="A104" s="2"/>
       <c r="B104" s="9"/>
       <c r="C104" s="2"/>
@@ -9174,7 +9230,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16">
       <c r="A105" s="2"/>
       <c r="B105" s="9"/>
       <c r="C105" s="2"/>
@@ -9202,7 +9258,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16">
       <c r="A106" s="2"/>
       <c r="B106" s="9"/>
       <c r="C106" s="2"/>
@@ -9230,7 +9286,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16">
       <c r="A107" s="2"/>
       <c r="B107" s="9"/>
       <c r="C107" s="2"/>
@@ -9258,7 +9314,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16">
       <c r="A108" s="2"/>
       <c r="B108" s="9"/>
       <c r="C108" s="2"/>
@@ -9286,7 +9342,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16">
       <c r="A109" s="2"/>
       <c r="B109" s="9"/>
       <c r="C109" s="2"/>
@@ -9314,7 +9370,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16">
       <c r="A110" s="2"/>
       <c r="B110" s="9"/>
       <c r="C110" s="2"/>
@@ -9342,7 +9398,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16">
       <c r="A111" s="2"/>
       <c r="B111" s="9"/>
       <c r="C111" s="2"/>
@@ -9370,7 +9426,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16">
       <c r="A112" s="2"/>
       <c r="B112" s="9"/>
       <c r="C112" s="2"/>
@@ -9398,7 +9454,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16">
       <c r="A113" s="2"/>
       <c r="B113" s="9"/>
       <c r="C113" s="2"/>
@@ -9426,7 +9482,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16">
       <c r="A114" s="2"/>
       <c r="B114" s="9"/>
       <c r="C114" s="2"/>
@@ -9454,7 +9510,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16">
       <c r="A115" s="2"/>
       <c r="B115" s="9"/>
       <c r="C115" s="2"/>
@@ -9482,7 +9538,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16">
       <c r="A116" s="2"/>
       <c r="B116" s="9"/>
       <c r="C116" s="2"/>
@@ -9510,7 +9566,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16">
       <c r="A117" s="2"/>
       <c r="B117" s="9"/>
       <c r="C117" s="2"/>
@@ -9538,7 +9594,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16">
       <c r="A118" s="2"/>
       <c r="B118" s="9"/>
       <c r="C118" s="2"/>
@@ -9566,7 +9622,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16">
       <c r="A119" s="2"/>
       <c r="B119" s="9"/>
       <c r="C119" s="2"/>
@@ -9594,7 +9650,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16">
       <c r="A120" s="2"/>
       <c r="B120" s="9"/>
       <c r="C120" s="2"/>
@@ -9622,7 +9678,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16">
       <c r="A121" s="2"/>
       <c r="B121" s="9"/>
       <c r="C121" s="2"/>
@@ -9650,7 +9706,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16">
       <c r="A122" s="2"/>
       <c r="B122" s="9"/>
       <c r="C122" s="2"/>
@@ -9678,7 +9734,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16">
       <c r="A123" s="2"/>
       <c r="B123" s="9"/>
       <c r="C123" s="2"/>
@@ -9706,7 +9762,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16">
       <c r="A124" s="2"/>
       <c r="B124" s="9"/>
       <c r="C124" s="2"/>
@@ -9734,7 +9790,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16">
       <c r="A125" s="2"/>
       <c r="B125" s="9"/>
       <c r="C125" s="2"/>
@@ -9762,7 +9818,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16">
       <c r="A126" s="2"/>
       <c r="B126" s="9"/>
       <c r="C126" s="2"/>
@@ -9790,7 +9846,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16">
       <c r="A127" s="2"/>
       <c r="B127" s="9"/>
       <c r="C127" s="2"/>
@@ -9818,7 +9874,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16">
       <c r="A128" s="2"/>
       <c r="B128" s="9"/>
       <c r="C128" s="2"/>
@@ -9846,7 +9902,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16">
       <c r="A129" s="2"/>
       <c r="B129" s="9"/>
       <c r="C129" s="2"/>
@@ -9874,7 +9930,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16">
       <c r="A130" s="2"/>
       <c r="B130" s="9"/>
       <c r="C130" s="2"/>
@@ -9902,7 +9958,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16">
       <c r="A131" s="2"/>
       <c r="B131" s="9"/>
       <c r="C131" s="2"/>
@@ -9930,7 +9986,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16">
       <c r="A132" s="2"/>
       <c r="B132" s="9"/>
       <c r="C132" s="2"/>
@@ -9958,7 +10014,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16">
       <c r="A133" s="2"/>
       <c r="B133" s="9"/>
       <c r="C133" s="2"/>
@@ -9986,7 +10042,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16">
       <c r="A134" s="2"/>
       <c r="B134" s="9"/>
       <c r="C134" s="2"/>
@@ -10014,7 +10070,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16">
       <c r="A135" s="2"/>
       <c r="B135" s="9"/>
       <c r="C135" s="2"/>
@@ -10042,7 +10098,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16">
       <c r="A136" s="2"/>
       <c r="B136" s="9"/>
       <c r="C136" s="2"/>
@@ -10070,7 +10126,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16">
       <c r="A137" s="2"/>
       <c r="B137" s="9"/>
       <c r="C137" s="2"/>
@@ -10098,7 +10154,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16">
       <c r="A138" s="2"/>
       <c r="B138" s="9"/>
       <c r="C138" s="2"/>
@@ -10126,7 +10182,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16">
       <c r="A139" s="2"/>
       <c r="B139" s="9"/>
       <c r="C139" s="2"/>
@@ -10154,7 +10210,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16">
       <c r="A140" s="2"/>
       <c r="B140" s="9"/>
       <c r="C140" s="2"/>
@@ -10182,7 +10238,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16">
       <c r="A141" s="2"/>
       <c r="B141" s="9"/>
       <c r="C141" s="2"/>
@@ -10210,7 +10266,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16">
       <c r="A142" s="2"/>
       <c r="B142" s="9"/>
       <c r="C142" s="2"/>
@@ -10238,7 +10294,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16">
       <c r="A143" s="2"/>
       <c r="B143" s="9"/>
       <c r="C143" s="2"/>
@@ -10266,7 +10322,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16">
       <c r="A144" s="2"/>
       <c r="B144" s="9"/>
       <c r="C144" s="2"/>
@@ -10294,7 +10350,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16">
       <c r="A145" s="2"/>
       <c r="B145" s="9"/>
       <c r="C145" s="2"/>
@@ -10322,7 +10378,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16">
       <c r="A146" s="2"/>
       <c r="B146" s="9"/>
       <c r="C146" s="2"/>
@@ -10350,7 +10406,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16">
       <c r="A147" s="2"/>
       <c r="B147" s="9"/>
       <c r="C147" s="2"/>
@@ -10378,7 +10434,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16">
       <c r="A148" s="2"/>
       <c r="B148" s="9"/>
       <c r="C148" s="2"/>
@@ -10406,7 +10462,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16">
       <c r="A149" s="2"/>
       <c r="B149" s="9"/>
       <c r="C149" s="2"/>
@@ -10434,7 +10490,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16">
       <c r="A150" s="2"/>
       <c r="B150" s="9"/>
       <c r="C150" s="2"/>
@@ -10462,7 +10518,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16">
       <c r="A151" s="2"/>
       <c r="B151" s="9"/>
       <c r="C151" s="2"/>
@@ -10490,7 +10546,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16">
       <c r="A152" s="2"/>
       <c r="B152" s="9"/>
       <c r="C152" s="2"/>
@@ -10518,7 +10574,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16">
       <c r="A153" s="2"/>
       <c r="B153" s="9"/>
       <c r="C153" s="2"/>
@@ -10546,7 +10602,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16">
       <c r="A154" s="2"/>
       <c r="B154" s="9"/>
       <c r="C154" s="2"/>
@@ -10574,7 +10630,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16">
       <c r="A155" s="2"/>
       <c r="B155" s="9"/>
       <c r="C155" s="2"/>
@@ -10602,7 +10658,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16">
       <c r="A156" s="2"/>
       <c r="B156" s="9"/>
       <c r="C156" s="2"/>
@@ -10630,7 +10686,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16">
       <c r="A157" s="2"/>
       <c r="B157" s="9"/>
       <c r="C157" s="2"/>
@@ -10658,7 +10714,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16">
       <c r="A158" s="2"/>
       <c r="B158" s="9"/>
       <c r="C158" s="2"/>
@@ -10686,7 +10742,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16">
       <c r="A159" s="2"/>
       <c r="B159" s="9"/>
       <c r="C159" s="2"/>
@@ -10714,7 +10770,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16">
       <c r="A160" s="2"/>
       <c r="B160" s="9"/>
       <c r="C160" s="2"/>
@@ -10742,7 +10798,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16">
       <c r="A161" s="2"/>
       <c r="B161" s="9"/>
       <c r="C161" s="2"/>
@@ -10770,7 +10826,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16">
       <c r="A162" s="2"/>
       <c r="B162" s="9"/>
       <c r="C162" s="2"/>
@@ -10798,7 +10854,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16">
       <c r="A163" s="2"/>
       <c r="B163" s="9"/>
       <c r="C163" s="2"/>
@@ -10826,7 +10882,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16">
       <c r="A164" s="2"/>
       <c r="B164" s="9"/>
       <c r="C164" s="2"/>
@@ -10854,7 +10910,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16">
       <c r="A165" s="2"/>
       <c r="B165" s="9"/>
       <c r="C165" s="2"/>
@@ -10882,7 +10938,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16">
       <c r="A166" s="2"/>
       <c r="B166" s="9"/>
       <c r="C166" s="2"/>
@@ -10910,7 +10966,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16">
       <c r="A167" s="2"/>
       <c r="B167" s="9"/>
       <c r="C167" s="2"/>
@@ -10938,7 +10994,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16">
       <c r="A168" s="2"/>
       <c r="B168" s="9"/>
       <c r="C168" s="2"/>
@@ -10966,7 +11022,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16">
       <c r="A169" s="2"/>
       <c r="B169" s="9"/>
       <c r="C169" s="2"/>
@@ -10994,7 +11050,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16">
       <c r="A170" s="2"/>
       <c r="B170" s="9"/>
       <c r="C170" s="2"/>
@@ -11022,7 +11078,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16">
       <c r="A171" s="2"/>
       <c r="B171" s="9"/>
       <c r="C171" s="2"/>
@@ -11050,7 +11106,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16">
       <c r="A172" s="2"/>
       <c r="B172" s="9"/>
       <c r="C172" s="2"/>
@@ -11078,7 +11134,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16">
       <c r="A173" s="2"/>
       <c r="B173" s="9"/>
       <c r="C173" s="2"/>
@@ -11106,7 +11162,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16">
       <c r="A174" s="2"/>
       <c r="B174" s="9"/>
       <c r="C174" s="2"/>
@@ -11134,7 +11190,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16">
       <c r="A175" s="2"/>
       <c r="B175" s="9"/>
       <c r="C175" s="2"/>
@@ -11162,7 +11218,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16">
       <c r="A176" s="2"/>
       <c r="B176" s="9"/>
       <c r="C176" s="2"/>
@@ -11190,7 +11246,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16">
       <c r="A177" s="2"/>
       <c r="B177" s="9"/>
       <c r="C177" s="2"/>
@@ -11218,7 +11274,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16">
       <c r="A178" s="2"/>
       <c r="B178" s="9"/>
       <c r="C178" s="2"/>
@@ -11246,7 +11302,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16">
       <c r="A179" s="2"/>
       <c r="B179" s="9"/>
       <c r="C179" s="2"/>
@@ -11274,7 +11330,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16">
       <c r="A180" s="2"/>
       <c r="B180" s="9"/>
       <c r="C180" s="2"/>
@@ -11302,7 +11358,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16">
       <c r="A181" s="2"/>
       <c r="B181" s="9"/>
       <c r="C181" s="2"/>
@@ -11330,7 +11386,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16">
       <c r="A182" s="2"/>
       <c r="B182" s="9"/>
       <c r="C182" s="2"/>
@@ -11358,7 +11414,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16">
       <c r="A183" s="2"/>
       <c r="B183" s="9"/>
       <c r="C183" s="2"/>
@@ -11386,7 +11442,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16">
       <c r="A184" s="2"/>
       <c r="B184" s="9"/>
       <c r="C184" s="2"/>
@@ -11414,7 +11470,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16">
       <c r="A185" s="2"/>
       <c r="B185" s="9"/>
       <c r="C185" s="2"/>
@@ -11442,7 +11498,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16">
       <c r="A186" s="2"/>
       <c r="B186" s="9"/>
       <c r="C186" s="2"/>
@@ -11470,7 +11526,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16">
       <c r="A187" s="2"/>
       <c r="B187" s="9"/>
       <c r="C187" s="2"/>
@@ -11498,7 +11554,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16">
       <c r="A188" s="2"/>
       <c r="B188" s="9"/>
       <c r="C188" s="2"/>
@@ -11526,7 +11582,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16">
       <c r="A189" s="2"/>
       <c r="B189" s="9"/>
       <c r="C189" s="2"/>
@@ -11554,7 +11610,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16">
       <c r="A190" s="2"/>
       <c r="B190" s="9"/>
       <c r="C190" s="2"/>
@@ -11582,7 +11638,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16">
       <c r="A191" s="2"/>
       <c r="B191" s="9"/>
       <c r="C191" s="2"/>
@@ -11610,7 +11666,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16">
       <c r="A192" s="2"/>
       <c r="B192" s="9"/>
       <c r="C192" s="2"/>
@@ -11638,7 +11694,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16">
       <c r="A193" s="2"/>
       <c r="B193" s="9"/>
       <c r="C193" s="2"/>
@@ -11666,7 +11722,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16">
       <c r="A194" s="2"/>
       <c r="B194" s="9"/>
       <c r="C194" s="2"/>
@@ -11694,7 +11750,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16">
       <c r="A195" s="2"/>
       <c r="B195" s="9"/>
       <c r="C195" s="2"/>
@@ -11722,7 +11778,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16">
       <c r="A196" s="2"/>
       <c r="B196" s="9"/>
       <c r="C196" s="2"/>
@@ -11750,7 +11806,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16">
       <c r="A197" s="2"/>
       <c r="B197" s="9"/>
       <c r="C197" s="2"/>
@@ -11778,7 +11834,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16">
       <c r="A198" s="2"/>
       <c r="B198" s="9"/>
       <c r="C198" s="2"/>
@@ -11806,8 +11862,6 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15"/>
-    <row r="200" spans="1:26" ht="15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44898C-9894-AC42-BC61-5E42973FFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE24377-18C0-994F-812B-CDF2A92D6EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>名称</t>
   </si>
@@ -129,6 +129,23 @@
     <t>对比字符串开销比较大，可以将字符串通过位运算变成int，
 再进行比较。</t>
   </si>
+  <si>
+    <t>Open the Lock</t>
+  </si>
+  <si>
+    <t>注意边界case：
+1. startCase == targetCase
+2. startCase 在deadends数组中</t>
+  </si>
+  <si>
+    <t>Minimum Number of Vertices to Reach All Nodes</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>将问题转化为有多少个in-degree为0的点</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -197,6 +214,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -223,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +294,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6219,7 +6263,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6486,14 +6530,28 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:26" ht="42">
+      <c r="A7" s="14">
+        <v>752</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16">
+        <v>44663</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6514,14 +6572,28 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+    <row r="8" spans="1:26">
+      <c r="A8" s="14">
+        <v>1557</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
+        <v>44664</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -11865,7 +11937,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D7:D198 D2:D5" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D9:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE24377-18C0-994F-812B-CDF2A92D6EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78BCF30-228D-D148-B9E3-3F728DE60B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>名称</t>
   </si>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>将问题转化为有多少个in-degree为0的点</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>也可以用UF来解。
+parents 数组记录每一个Node的祖先节点，当有新节点插入的时候
+找到其祖先节点</t>
   </si>
 </sst>
 </file>
@@ -6263,7 +6271,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6614,14 +6622,28 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="9" spans="1:26" ht="42">
+      <c r="A9" s="14">
+        <v>1557</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44669</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11937,7 +11959,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D9:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D10:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78BCF30-228D-D148-B9E3-3F728DE60B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCF360-B5FB-BF4B-B8ED-93087349BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -153,6 +153,17 @@
     <t>也可以用UF来解。
 parents 数组记录每一个Node的祖先节点，当有新节点插入的时候
 找到其祖先节点</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Graph DFS</t>
+  </si>
+  <si>
+    <t>Tips:
+一次DFS就可以找到一个连通图的所有节点
+一个连通图内判断是否合规在于之前的color是否和当前color一致</t>
   </si>
 </sst>
 </file>
@@ -6270,8 +6281,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:G9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6664,14 +6675,28 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+    <row r="10" spans="1:26" ht="42">
+      <c r="A10" s="14">
+        <v>785</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44675</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -11959,7 +11984,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D10:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D11:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCF360-B5FB-BF4B-B8ED-93087349BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3343C-92C0-3F40-885F-EB266EB5AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资料分享" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>名称</t>
   </si>
@@ -164,6 +164,12 @@
     <t>Tips:
 一次DFS就可以找到一个连通图的所有节点
 一个连通图内判断是否合规在于之前的color是否和当前color一致</t>
+  </si>
+  <si>
+    <t>Possible Bipartition</t>
+  </si>
+  <si>
+    <t>和上题类似</t>
   </si>
 </sst>
 </file>
@@ -6282,7 +6288,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6717,13 +6723,25 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:26">
+      <c r="A11" s="14">
+        <v>886</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="16">
+        <v>44675</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11984,7 +12002,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D11:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D12:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3343C-92C0-3F40-885F-EB266EB5AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C122C-604B-A34E-84A4-09F82323F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>名称</t>
   </si>
@@ -170,6 +170,17 @@
   </si>
   <si>
     <t>和上题类似</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Greedy, two pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双指针可以在O(n)的时间找到最大值
+Move the shorter height among 2 pointers to the next position.！！
+</t>
   </si>
 </sst>
 </file>
@@ -6288,7 +6299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6763,14 +6774,28 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:26" ht="42">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44676</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -12002,7 +12027,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D12:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D13:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C122C-604B-A34E-84A4-09F82323F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B046DA-A5D7-0649-B445-0C000A1ABF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>名称</t>
   </si>
@@ -181,6 +181,17 @@
     <t xml:space="preserve">双指针可以在O(n)的时间找到最大值
 Move the shorter height among 2 pointers to the next position.！！
 </t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>多个车站可以看成一个整体
+1、两个数组之差的总和必须大于等于0，否则不能完成绕行 2、 一个站的收益如果小于0，肯定不能作为起点；而连续的多个站也可以等效地看做一个站，如果其累积收益小于0，就跳过，寻找下一个。
+要有整体的思维</t>
   </si>
 </sst>
 </file>
@@ -6299,7 +6310,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6816,14 +6827,28 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="16">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+    <row r="13" spans="1:26" ht="70">
+      <c r="A13" s="14">
+        <v>134</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="16">
+        <v>44677</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -12027,7 +12052,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D13:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D14:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B046DA-A5D7-0649-B445-0C000A1ABF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5ACF21-A1AE-9C41-B263-039BBA819ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>名称</t>
   </si>
@@ -193,6 +193,14 @@
 1、两个数组之差的总和必须大于等于0，否则不能完成绕行 2、 一个站的收益如果小于0，肯定不能作为起点；而连续的多个站也可以等效地看做一个站，如果其累积收益小于0，就跳过，寻找下一个。
 要有整体的思维</t>
   </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>1. 现根据所有的end从小到达排序
+2. 然后找到每一个end里面有多少个start
+3. 如果start&gt;end了，更新 end</t>
+  </si>
 </sst>
 </file>
 
@@ -265,6 +273,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -273,6 +282,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6310,7 +6320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6869,14 +6879,28 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="16">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="14" spans="1:26" ht="42">
+      <c r="A14" s="10">
+        <v>452</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44678</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -12052,7 +12076,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D14:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D15:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5ACF21-A1AE-9C41-B263-039BBA819ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D86452-1878-1345-BA83-2EB91F082305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>名称</t>
   </si>
@@ -200,6 +200,13 @@
     <t>1. 现根据所有的end从小到达排序
 2. 然后找到每一个end里面有多少个start
 3. 如果start&gt;end了，更新 end</t>
+  </si>
+  <si>
+    <t>Video Stitching</t>
+  </si>
+  <si>
+    <t>1. start节点升序，start节点相同降序排列
+2. while循环嵌套，如果有判断条件写在第二个while循环前面，最后一定要判断最后一个index的情况，否则里层while循环推出之后就不会走了。</t>
   </si>
 </sst>
 </file>
@@ -6320,7 +6327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:G14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6921,14 +6928,28 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="1:26" ht="56">
+      <c r="A15" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44679</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -12076,7 +12097,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D15:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D16:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D86452-1878-1345-BA83-2EB91F082305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A394B95-3546-F141-A95D-90347FE17099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>名称</t>
   </si>
@@ -207,6 +207,15 @@
   <si>
     <t>1. start节点升序，start节点相同降序排列
 2. while循环嵌套，如果有判断条件写在第二个while循环前面，最后一定要判断最后一个index的情况，否则里层while循环推出之后就不会走了。</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>45*</t>
+  </si>
+  <si>
+    <t>如果不从0开始遍历，并且result++在判断后，则需要打补丁</t>
   </si>
 </sst>
 </file>
@@ -6327,7 +6336,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6970,14 +6979,28 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="1:26">
+      <c r="A16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44680</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -12097,7 +12120,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D16:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D17:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A394B95-3546-F141-A95D-90347FE17099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993EE4C-E54D-7C47-96DB-2D0CDF9708FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>名称</t>
   </si>
@@ -216,6 +216,17 @@
   </si>
   <si>
     <t>如果不从0开始遍历，并且result++在判断后，则需要打补丁</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>prefix sum, hashmap</t>
+  </si>
+  <si>
+    <t>1. 首先想到构建prefix sum数组
+2. 由于实际上求有多少个preSum[i] = preSum[j] - k;
+3. 利用hashmap进行缓存，遍历的顺序正好符合要求</t>
   </si>
 </sst>
 </file>
@@ -6335,8 +6346,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7021,14 +7032,28 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="1:26" ht="42">
+      <c r="A17" s="10">
+        <v>560</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44681</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -12120,7 +12145,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D17:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D18:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993EE4C-E54D-7C47-96DB-2D0CDF9708FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039E2BA-6228-9144-88A4-A1CD54F2C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>名称</t>
   </si>
@@ -227,6 +227,15 @@
     <t>1. 首先想到构建prefix sum数组
 2. 由于实际上求有多少个preSum[i] = preSum[j] - k;
 3. 利用hashmap进行缓存，遍历的顺序正好符合要求</t>
+  </si>
+  <si>
+    <t>Corporate Flight Bookings</t>
+  </si>
+  <si>
+    <t>difference array</t>
+  </si>
+  <si>
+    <t>对于频繁对数组某个区间进行增减的情况，需要用到差分数组。</t>
   </si>
 </sst>
 </file>
@@ -6347,7 +6356,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7074,14 +7083,28 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="10">
+        <v>1109</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44682</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12145,7 +12168,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D18:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D19:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039E2BA-6228-9144-88A4-A1CD54F2C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31445DA-FB1E-B342-B49B-9C32740D2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>名称</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>对于频繁对数组某个区间进行增减的情况，需要用到差分数组。</t>
+  </si>
+  <si>
+    <t>Car Pooling</t>
+  </si>
+  <si>
+    <t>方法同上题，转化为茶粉数组求解</t>
   </si>
 </sst>
 </file>
@@ -6356,7 +6362,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:G18"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7125,14 +7131,28 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+    <row r="19" spans="1:26">
+      <c r="A19" s="10">
+        <v>1094</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44682</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -12168,7 +12188,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D19:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D20:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31445DA-FB1E-B342-B49B-9C32740D2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEAE3A-4957-BF4A-8BCF-ED729C4BDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>名称</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>方法同上题，转化为茶粉数组求解</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>PriorityQueue, heap, linkedlist</t>
+  </si>
+  <si>
+    <t>多路归并的思路：用最小堆记录最小的，最小堆排序的复杂度是logK</t>
   </si>
 </sst>
 </file>
@@ -6362,7 +6371,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7173,14 +7182,28 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:26">
+      <c r="A20" s="10">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44682</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -12188,7 +12211,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D20:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D21:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEAE3A-4957-BF4A-8BCF-ED729C4BDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06599365-1FEF-9148-BF31-C4CBEBAEC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>名称</t>
   </si>
@@ -251,6 +251,24 @@
   </si>
   <si>
     <t>多路归并的思路：用最小堆记录最小的，最小堆排序的复杂度是logK</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>two pointer</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>快慢指针；注意遍历到最后的时候需要切断slow.next</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>左右指针</t>
   </si>
 </sst>
 </file>
@@ -6371,7 +6389,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:G20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7224,14 +7242,28 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:26">
+      <c r="A21" s="10">
+        <v>83</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="12">
+        <v>44684</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -7252,14 +7284,28 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:26">
+      <c r="A22" s="10">
+        <v>167</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44684</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -12211,7 +12257,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D21:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D23:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06599365-1FEF-9148-BF31-C4CBEBAEC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACF339-AE37-EA41-A46F-BAAD876E4FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>名称</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>左右指针</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>只能是O(n^2)的做法，穷举以每个点为中心扩散，找到最长的字符串</t>
   </si>
 </sst>
 </file>
@@ -6389,7 +6395,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:G22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7326,14 +7332,28 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="16">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:26">
+      <c r="A23" s="10">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44684</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -12257,7 +12277,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D23:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D24:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACF339-AE37-EA41-A46F-BAAD876E4FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAC6F3-C830-7F48-BEB7-394628457CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>名称</t>
   </si>
@@ -276,6 +276,15 @@
   <si>
     <t>只能是O(n^2)的做法，穷举以每个点为中心扩散，找到最长的字符串</t>
   </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>滑动指针模版题，滑动指针最好一开始用左闭右开的区间</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -361,6 +370,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -387,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6395,7 +6428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:G23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7374,14 +7407,28 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="16">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:26">
+      <c r="A24" s="18">
+        <v>76</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="20">
+        <v>44685</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -12277,7 +12324,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D24:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D25:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAC6F3-C830-7F48-BEB7-394628457CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22C785-3B0F-C847-B52A-E91D216BE480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>名称</t>
   </si>
@@ -285,6 +285,16 @@
   <si>
     <t>滑动指针模版题，滑动指针最好一开始用左闭右开的区间</t>
   </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>套用滑动窗口模版的时候需要思考下面四个问题：
+1. 当移动right扩大窗口，即加入字符的时候，应该更新哪些数据？
+2. 什么条件下，窗口应该暂停扩大，开始移动left缩小窗口
+3. 当移动left缩小窗口，移除字符串的时候，应该更新哪些数据？
+4. 我们要的结果应该在扩大窗口的时候还是缩小窗口的时候进行更新</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +482,9 @@
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6428,7 +6441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:G24"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7449,14 +7462,28 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="16">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="1:26" ht="70">
+      <c r="A25" s="18">
+        <v>567</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="20">
+        <v>44685</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -12324,7 +12351,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D25:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D26:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22C785-3B0F-C847-B52A-E91D216BE480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E7E19-C7E5-3B43-B754-FCD277FF2696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>名称</t>
   </si>
@@ -294,6 +294,12 @@
 2. 什么条件下，窗口应该暂停扩大，开始移动left缩小窗口
 3. 当移动left缩小窗口，移除字符串的时候，应该更新哪些数据？
 4. 我们要的结果应该在扩大窗口的时候还是缩小窗口的时候进行更新</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>同上</t>
   </si>
 </sst>
 </file>
@@ -6441,7 +6447,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:G25"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7504,14 +7510,28 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="10">
+        <v>438</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="12">
+        <v>44685</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -12351,7 +12371,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D26:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D27:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E7E19-C7E5-3B43-B754-FCD277FF2696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E6425-7E63-9C4F-8563-5CADEE4448A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>名称</t>
   </si>
@@ -301,6 +301,13 @@
   <si>
     <t>同上</t>
   </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>遇到判断是否有相同字符，或者统计字符数量的问题，最先想到数组来解决
+数组可以代替hashmap</t>
+  </si>
 </sst>
 </file>
 
@@ -390,6 +397,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -398,6 +406,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6446,8 +6455,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7552,14 +7561,28 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="1:26" ht="42">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="12">
+        <v>44686</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -12371,7 +12394,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D27:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D28:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E6425-7E63-9C4F-8563-5CADEE4448A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF09906-B35C-E24B-B43C-6A04957D8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>名称</t>
   </si>
@@ -307,6 +307,15 @@
   <si>
     <t>遇到判断是否有相同字符，或者统计字符数量的问题，最先想到数组来解决
 数组可以代替hashmap</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>寻找左右边界的时候，最后应该对left,left-1是否越界进行判断</t>
   </si>
 </sst>
 </file>
@@ -6456,7 +6465,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:G27"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7603,14 +7612,28 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="16">
-      <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="1:26">
+      <c r="A28" s="10">
+        <v>34</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44687</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -12394,7 +12417,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D28:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D29:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF09906-B35C-E24B-B43C-6A04957D8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77FDCAE-906E-0347-B9FC-37F8B86827FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>名称</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>寻找左右边界的时候，最后应该对left,left-1是否越界进行判断</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>应用题转化为二分搜索问题：
+1. 确定x, f(x), target分别是什么，写出f(x)的表达式，f(x)必须是单调的
+2. 找到x的取值范围作为二分搜索的搜索区间，初始化left,right
+3. 根据题目要求，寻找左边界或者右边界</t>
   </si>
 </sst>
 </file>
@@ -6464,8 +6473,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:G28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7654,14 +7663,28 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:26" ht="56">
+      <c r="A29" s="10">
+        <v>875</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="12">
+        <v>44688</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -12417,7 +12440,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D29:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D30:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77FDCAE-906E-0347-B9FC-37F8B86827FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A4CB8B-8FAD-214A-B878-6983EA18B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>名称</t>
   </si>
@@ -325,6 +325,12 @@
 1. 确定x, f(x), target分别是什么，写出f(x)的表达式，f(x)必须是单调的
 2. 找到x的取值范围作为二分搜索的搜索区间，初始化left,right
 3. 根据题目要求，寻找左边界或者右边界</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>类似上题</t>
   </si>
 </sst>
 </file>
@@ -6474,7 +6480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:G29"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7705,14 +7711,28 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="16">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:26">
+      <c r="A30" s="10">
+        <v>1011</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="12">
+        <v>44688</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -12440,7 +12460,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D30:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D31:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A4CB8B-8FAD-214A-B878-6983EA18B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65016066-34E6-0A44-8D38-D6CA1D2D999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>名称</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>类似上题</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>类似上题，找到单调的函数对应关系。</t>
   </si>
 </sst>
 </file>
@@ -6480,7 +6486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7753,14 +7759,28 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="16">
-      <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:26">
+      <c r="A31" s="10">
+        <v>410</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="12">
+        <v>44688</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -12460,7 +12480,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D31:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D32:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65016066-34E6-0A44-8D38-D6CA1D2D999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA517-4481-9E4F-AF69-0C52D1E7C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>名称</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>类似上题，找到单调的函数对应关系。</t>
+  </si>
+  <si>
+    <t>Advantage Shuffle</t>
+  </si>
+  <si>
+    <t>田忌赛马问题：
+1. nums1排序后和nums2比较，比得过就比，比不过就用一个更小的值
+2. 由于num2不能改变原来的顺序，所以得用最大堆
+3. 如果可以比得过，并不介意用一个更大的值来比。所以想到用left,right双指针</t>
   </si>
 </sst>
 </file>
@@ -6486,7 +6495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:G31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7801,14 +7810,28 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="16">
-      <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:26" ht="84">
+      <c r="A32" s="10">
+        <v>870</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="12">
+        <v>44689</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -12480,7 +12503,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D32:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D33:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA517-4481-9E4F-AF69-0C52D1E7C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9115AE8-F641-A748-B8FD-D534B8EF8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>名称</t>
   </si>
@@ -346,6 +346,27 @@
 1. nums1排序后和nums2比较，比得过就比，比不过就用一个更小的值
 2. 由于num2不能改变原来的顺序，所以得用最大堆
 3. 如果可以比得过，并不介意用一个更大的值来比。所以想到用left,right双指针</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>iterative和recursive两种办法都可行。
+revursive先找到链表尾部，然后再反转</t>
+  </si>
+  <si>
+    <t>92*</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>先封装一个前N个链表反转的方法；注意需要在第n个链表节点记录succesor
+上面那题最后一个节点指向null,但是这里最后一个节点要指向succesor
+然后再递归找到链表开始反转的节点m。</t>
   </si>
 </sst>
 </file>
@@ -6494,8 +6515,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:G32"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7852,14 +7873,28 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="16">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="1:26" ht="28">
+      <c r="A33" s="10">
+        <v>206</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44690</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -7880,14 +7915,28 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="16">
-      <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="1:26" ht="70">
+      <c r="A34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="12">
+        <v>44690</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -12503,7 +12552,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D33:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D35:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9115AE8-F641-A748-B8FD-D534B8EF8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE4FA7-6C97-6248-9C0A-4E59C9DEEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>名称</t>
   </si>
@@ -367,6 +367,22 @@
     <t>先封装一个前N个链表反转的方法；注意需要在第n个链表节点记录succesor
 上面那题最后一个节点指向null,但是这里最后一个节点要指向succesor
 然后再递归找到链表开始反转的节点m。</t>
+  </si>
+  <si>
+    <t>Stack, Queue</t>
+  </si>
+  <si>
+    <t>Valid Parenthese</t>
+  </si>
+  <si>
+    <t>找对应括号 想到栈</t>
+  </si>
+  <si>
+    <t>Minimum Add to Make Parentheses Valid</t>
+  </si>
+  <si>
+    <t>由于只有一种括号，直接用一个计数器count计算。
+count &gt; 0的时候左括号多；count &lt; 0右括号多；相等就正好是valid</t>
   </si>
 </sst>
 </file>
@@ -6516,7 +6532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:G34"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7957,14 +7973,28 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="16">
-      <c r="A35" s="2"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:26">
+      <c r="A35" s="10">
+        <v>20</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="12">
+        <v>44691</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -7985,14 +8015,28 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="16">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:26" ht="28">
+      <c r="A36" s="10">
+        <v>921</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="12">
+        <v>44694</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -12552,7 +12596,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D35:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D37:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE4FA7-6C97-6248-9C0A-4E59C9DEEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05322FC1-E927-2642-BD5A-9F5D5D3C2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>名称</t>
   </si>
@@ -384,6 +384,12 @@
     <t>由于只有一种括号，直接用一个计数器count计算。
 count &gt; 0的时候左括号多；count &lt; 0右括号多；相等就正好是valid</t>
   </si>
+  <si>
+    <t>Minimum Insertions to Balance a Parentheses String</t>
+  </si>
+  <si>
+    <t>同上题</t>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -486,6 +492,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -512,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6532,7 +6547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:G36"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8057,14 +8072,28 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="16">
-      <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:26">
+      <c r="A37" s="10">
+        <v>1541</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="12">
+        <v>44695</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -12596,7 +12625,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D37:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D38:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05322FC1-E927-2642-BD5A-9F5D5D3C2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F018220E-E8BC-5246-A1A8-C4CB9DDDA546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>名称</t>
   </si>
@@ -389,6 +389,24 @@
   </si>
   <si>
     <t>同上题</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Stack,单调栈</t>
+  </si>
+  <si>
+    <t>单调栈算法主要用于此类问题：
+找数组中每一个元素后面更大的元素。
+for循环倒着入栈，正序出栈。每个元素进出栈一次 O(n)复杂度</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>和上题类似，不同的是这个是环形数组。环形数组想到两个数组拼接起来的方法
+int数组取子数组可以用Arrays.copyOfRange方法</t>
   </si>
 </sst>
 </file>
@@ -6547,7 +6565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:G37"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8114,14 +8132,28 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="16">
-      <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+    <row r="38" spans="1:26" ht="42">
+      <c r="A38" s="10">
+        <v>496</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="12">
+        <v>44695</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -8142,14 +8174,28 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="16">
-      <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+    <row r="39" spans="1:26" ht="42">
+      <c r="A39" s="10">
+        <v>503</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="12">
+        <v>44695</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -12625,7 +12671,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D38:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D40:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F018220E-E8BC-5246-A1A8-C4CB9DDDA546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC169BD8-C907-C143-9041-14614C11210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
   <si>
     <t>名称</t>
   </si>
@@ -407,6 +407,13 @@
   <si>
     <t>和上题类似，不同的是这个是环形数组。环形数组想到两个数组拼接起来的方法
 int数组取子数组可以用Arrays.copyOfRange方法</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>同上题
+deque中不仅要记录value，还要记录index</t>
   </si>
 </sst>
 </file>
@@ -6564,8 +6571,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:G39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8216,14 +8223,28 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="16">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+    <row r="40" spans="1:26" ht="28">
+      <c r="A40" s="10">
+        <v>739</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="12">
+        <v>44695</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -12671,7 +12692,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D40:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D41:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC169BD8-C907-C143-9041-14614C11210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE23BD-9E6D-754F-9BF1-760630A13846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>名称</t>
   </si>
@@ -415,6 +415,18 @@
     <t>同上题
 deque中不仅要记录value，还要记录index</t>
   </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>sliding window, 单调队列</t>
+  </si>
+  <si>
+    <t>找最大值一开始想到的是最大堆，但是由于这个是滑动窗口，需要从再从堆里拿出值。
+所以用单调队列更合适，队列头部就是最大值，比他小的都pop出去了
+每个元素push,pop了一次，时间复杂度是O(n)
+找数组区间内的最大最小值想到单调队列</t>
+  </si>
 </sst>
 </file>
 
@@ -423,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -523,6 +535,21 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -549,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +643,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6572,7 +6611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:G40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8265,14 +8304,28 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="16">
-      <c r="A41" s="2"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+    <row r="41" spans="1:26" ht="84">
+      <c r="A41" s="23">
+        <v>239</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="25">
+        <v>44697</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -12692,7 +12745,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D41:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D42:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE23BD-9E6D-754F-9BF1-760630A13846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAE917-6E54-504F-959A-BB9262685C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
   <si>
     <t>名称</t>
   </si>
@@ -426,6 +426,25 @@
 所以用单调队列更合适，队列头部就是最大值，比他小的都pop出去了
 每个元素push,pop了一次，时间复杂度是O(n)
 找数组区间内的最大最小值想到单调队列</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>单调栈，单调队列</t>
+  </si>
+  <si>
+    <t>三个要求：
+要求一、通过inStack这个布尔数组做到栈stk中不存在重复元素。
+要求二、我们顺序遍历字符串s，通过「栈」这种顺序结构的 push/pop 操作记录结果字符串，保证了字符出现的顺序和s中出现的顺序一致。
+这里也可以想到为什么要用「栈」这种数据结构，因为先进后出的结构允许我们立即操作刚插入的字符，如果用「队列」的话肯定是做不到的。
+要求三、我们用类似单调栈的思路，配合计数器count不断 pop 掉不符合最小字典序的字符，保证了最终得到的结果字典序最小。</t>
+  </si>
+  <si>
+    <t>Smallest Subsequence of Distinct Characters</t>
+  </si>
+  <si>
+    <t>和上题一毛一样</t>
   </si>
 </sst>
 </file>
@@ -6611,7 +6630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:G41"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8346,14 +8365,28 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="16">
-      <c r="A42" s="2"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+    <row r="42" spans="1:26" ht="196">
+      <c r="A42" s="23">
+        <v>316</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="25">
+        <v>44698</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -8374,14 +8407,28 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="16">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+    <row r="43" spans="1:26">
+      <c r="A43" s="23">
+        <v>1081</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="25">
+        <v>44698</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -12745,7 +12792,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D42:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D44:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAE917-6E54-504F-959A-BB9262685C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA40E0F-8CE9-554F-A022-C8B0F4737327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>名称</t>
   </si>
@@ -446,6 +446,25 @@
   <si>
     <t>和上题一毛一样</t>
   </si>
+  <si>
+    <t>146*</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>LRU 算法需要关注：查找快，插入快，删除快，保持时间顺序
+链表可以维持顺序，HashMap可以快速索引
+所以想到DoubleLinkedList+HashMap.
+为啥是双向链表，因为要插入到尾部，头部移除，需要知道head,tail的关系
+DoubleLinkedList 需要实现的三个API：
+public void add(Node x)；
+public void remove(Node x)；
+public Node removeLastest()；</t>
+  </si>
 </sst>
 </file>
 
@@ -595,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6630,7 +6652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:G43"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8449,14 +8471,28 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="16">
-      <c r="A44" s="2"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+    <row r="44" spans="1:26" ht="126">
+      <c r="A44" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="25">
+        <v>44699</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -12792,7 +12828,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D44:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D45:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA40E0F-8CE9-554F-A022-C8B0F4737327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829F3B7-11BA-1D46-AFFD-8DB4EF953434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>名称</t>
   </si>
@@ -464,6 +464,22 @@
 public void add(Node x)；
 public void remove(Node x)；
 public Node removeLastest()；</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>460*</t>
+  </si>
+  <si>
+    <t>LFU</t>
+  </si>
+  <si>
+    <t>维护三个映射关系：
+映射1: key-&gt;value 为了快速计算get(key)
+映射2: key-&gt;freq key对应的频率
+映射3: freq -&gt; key 一个freq对应多个key;并且需要记录最小的key
+映射3的key链表使用LinkedHashSet来记录，可以快速索引，快速插入</t>
   </si>
 </sst>
 </file>
@@ -6651,8 +6667,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8513,14 +8529,28 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="16">
-      <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="1:26" ht="84">
+      <c r="A45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="12">
+        <v>44700</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -12828,7 +12858,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D45:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D46:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829F3B7-11BA-1D46-AFFD-8DB4EF953434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E9348-11A1-C44F-BB51-B522C923DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
   <si>
     <t>名称</t>
   </si>
@@ -480,6 +480,19 @@
 映射2: key-&gt;freq key对应的频率
 映射3: freq -&gt; key 一个freq对应多个key;并且需要记录最小的key
 映射3的key链表使用LinkedHashSet来记录，可以快速索引，快速插入</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Reservoir Sampling</t>
+  </si>
+  <si>
+    <t>水塘抽样问题使用场景：给一段未知长度的序列，随机选取K个元素
+当遇到第i个元素的时候，应该有1/i的概率选择该元素，1-1/i的概率保持原有选择
+需要对整个序列遍历一遍即可找到结果
+注意Random库的使用
+Random.nextInt(bound) 是说在0(闭区间)，bound(开区间)内找一个随机数</t>
   </si>
 </sst>
 </file>
@@ -593,6 +606,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -601,6 +615,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6668,7 +6683,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:G45"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8571,14 +8586,28 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="16">
-      <c r="A46" s="2"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+    <row r="46" spans="1:26" ht="98">
+      <c r="A46" s="10">
+        <v>382</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="12">
+        <v>44701</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -12858,7 +12887,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D46:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D47:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E9348-11A1-C44F-BB51-B522C923DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA8EDE9-164F-7141-9AA7-2287B64F4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
   <si>
     <t>名称</t>
   </si>
@@ -493,6 +493,9 @@
 需要对整个序列遍历一遍即可找到结果
 注意Random库的使用
 Random.nextInt(bound) 是说在0(闭区间)，bound(开区间)内找一个随机数</t>
+  </si>
+  <si>
+    <t>Random Pick Index</t>
   </si>
 </sst>
 </file>
@@ -6683,7 +6686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:G46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8628,14 +8631,28 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="16">
-      <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="1:26">
+      <c r="A47" s="10">
+        <v>398</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="12">
+        <v>44701</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -12887,7 +12904,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D47:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D48:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA8EDE9-164F-7141-9AA7-2287B64F4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A07568-AD5A-E64F-9578-404EA18E6E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
   <si>
     <t>名称</t>
   </si>
@@ -496,6 +496,27 @@
   </si>
   <si>
     <t>Random Pick Index</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>array, HashMap</t>
+  </si>
+  <si>
+    <t>getRadom方法如果想等概率再O(1)取出，那么底层需要用数组实现，并且数组必须是紧凑的
+但是底层是数组在删除场景的时候，删除中间的一个值需要O(n),所以需要将数组最后一个值和中间的值进行替换，所以还需要用HashMap记录一个value的index</t>
+  </si>
+  <si>
+    <t>Random Pick with Blacklist</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>想象一个有序的数据结构，前面放的是正常的数值，后面放的是blackList,我们取Random的时候从前面的正常的数值里面取
+需要将blackList中的值跟后面的值做一个映射
+一个hashmap就够了，不需要弄一个自增1的数组</t>
   </si>
 </sst>
 </file>
@@ -6685,8 +6706,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:G47"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8673,14 +8694,28 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="16">
-      <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+    <row r="48" spans="1:26" ht="70">
+      <c r="A48" s="10">
+        <v>380</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="12">
+        <v>44704</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -8701,14 +8736,28 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="16">
-      <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="1:26" ht="56">
+      <c r="A49" s="10">
+        <v>710</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="12">
+        <v>44705</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -12904,7 +12953,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D48:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D50:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A07568-AD5A-E64F-9578-404EA18E6E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE215FD-3683-B548-8980-F43C5A8D1101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
   <si>
     <t>名称</t>
   </si>
@@ -518,6 +518,17 @@
 需要将blackList中的值跟后面的值做一个映射
 一个hashmap就够了，不需要弄一个自增1的数组</t>
   </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>维护两个优先队列，一个大顶堆，一个小顶堆
+ProirityQueue默认是小顶堆，复写Comparator o2-o1改成大顶堆
+比较两个堆的size，动态调整</t>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -643,6 +654,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -669,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +777,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6707,7 +6745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:G49"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8778,14 +8816,28 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="16">
-      <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+    <row r="50" spans="1:26" ht="42">
+      <c r="A50" s="28">
+        <v>295</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="30">
+        <v>44706</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -12953,7 +13005,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D50:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D51:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE215FD-3683-B548-8980-F43C5A8D1101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C096A7C-745E-6747-B322-C76EFBF7101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="147">
   <si>
     <t>名称</t>
   </si>
@@ -528,6 +528,21 @@
     <t>维护两个优先队列，一个大顶堆，一个小顶堆
 ProirityQueue默认是小顶堆，复写Comparator o2-o1改成大顶堆
 比较两个堆的size，动态调整</t>
+  </si>
+  <si>
+    <t>Basic Calculator 1,2,3</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>产出题解1篇：https://leetcode.com/problems/basic-calculator/discuss/2073120/JAVA-Recursion-Java-Solution(these-solution-also-apply-to-leetcode-227and772))
+// 将问题拆解成一个个小问题
+// 1. 将字符串变成数字
+// 2. 处理加减法
+// 3. 处理乘除法
+// 4. 处理空格
+// 5. 处理括号</t>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6745,7 +6763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8858,14 +8876,28 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="16">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+    <row r="51" spans="1:26" ht="126">
+      <c r="A51" s="32">
+        <v>224227772</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="30">
+        <v>44706</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -13005,7 +13037,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D51:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D52:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C096A7C-745E-6747-B322-C76EFBF7101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E743D-6839-8040-B836-186A5117069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
   <si>
     <t>名称</t>
   </si>
@@ -543,6 +543,23 @@
 // 3. 处理乘除法
 // 4. 处理空格
 // 5. 处理括号</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>优化的时候想到后序遍历
+前序位置的代码只能从函数参数重获取父节点传递来的数据，
+而后序位置的代码不仅可以获取参数数据，还可以获取到子树通过函数返回值传递回来的数据</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>和上题基本一样</t>
   </si>
 </sst>
 </file>
@@ -6763,7 +6780,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:G51"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8918,14 +8935,28 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="16">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+    <row r="52" spans="1:26" ht="56">
+      <c r="A52" s="28">
+        <v>104</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="30">
+        <v>44707</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -8946,14 +8977,28 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="16">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+    <row r="53" spans="1:26">
+      <c r="A53" s="28">
+        <v>543</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="30">
+        <v>44707</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -13037,7 +13082,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D52:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D54:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E743D-6839-8040-B836-186A5117069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91BAB47-09F7-7348-8031-C1E1322A0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
   <si>
     <t>名称</t>
   </si>
@@ -560,6 +560,16 @@
   </si>
   <si>
     <t>和上题基本一样</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树问题需要思考单抽一个节点需要做什么事，在前中后序哪个位置作
+找到这个关系，递归就很好写了</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
   </si>
 </sst>
 </file>
@@ -6779,8 +6789,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:G53"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9019,14 +9029,28 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="16">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+    <row r="54" spans="1:26" ht="42">
+      <c r="A54" s="10">
+        <v>226</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="12">
+        <v>44708</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -9047,14 +9071,26 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="16">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+    <row r="55" spans="1:26">
+      <c r="A55" s="10">
+        <v>116</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="12">
+        <v>44708</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -13082,7 +13118,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D54:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D56:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91BAB47-09F7-7348-8031-C1E1322A0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CBBC1E-44D5-1941-9CC6-997922E814C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
   <si>
     <t>名称</t>
   </si>
@@ -570,6 +570,14 @@
   </si>
   <si>
     <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>1. 先将root的左子树移到root.right
+2. 再将root的右子树移到root.right的下面
+3. 如何找到root.right下面，用while遍历，没有其他复杂度更低的方案了</t>
   </si>
 </sst>
 </file>
@@ -6789,8 +6797,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:G55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9111,14 +9119,28 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="16">
-      <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+    <row r="56" spans="1:26" ht="56">
+      <c r="A56" s="10">
+        <v>114</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="12">
+        <v>44710</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -13118,7 +13140,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D56:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D57:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CBBC1E-44D5-1941-9CC6-997922E814C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E889D4-E49C-C645-A48B-FAD168629038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
   <si>
     <t>名称</t>
   </si>
@@ -578,6 +578,13 @@
     <t>1. 先将root的左子树移到root.right
 2. 再将root的右子树移到root.right的下面
 3. 如何找到root.right下面，用while遍历，没有其他复杂度更低的方案了</t>
+  </si>
+  <si>
+    <t>Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树构造问题一般都是分解思路
+构造整棵树 = 根节点 + 构造左子树 + 构造右子树</t>
   </si>
 </sst>
 </file>
@@ -708,6 +715,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -716,6 +724,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6797,8 +6806,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:G56"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9161,14 +9170,28 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="16">
-      <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+    <row r="57" spans="1:26" ht="28">
+      <c r="A57" s="10">
+        <v>654</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="12">
+        <v>44710</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -13140,7 +13163,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D57:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D58:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E889D4-E49C-C645-A48B-FAD168629038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18B7A4-4E15-D548-9C5B-6625C99766B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="161">
   <si>
     <t>名称</t>
   </si>
@@ -585,6 +585,15 @@
   <si>
     <t>二叉树构造问题一般都是分解思路
 构造整棵树 = 根节点 + 构造左子树 + 构造右子树</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>一开始的想法是用Arrays.copyOfRange来传入preorder和inorder的子数组
+但是这样每次传参数都需要重新分配空间给新数组
+可以直接在原数组上根据index来控制
+这样也可以使用hashMap来进行查询优化</t>
   </si>
 </sst>
 </file>
@@ -6807,7 +6816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:G57"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9212,14 +9221,28 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="16">
-      <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="1:26" ht="70">
+      <c r="A58" s="10">
+        <v>105</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="12">
+        <v>44711</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -13163,7 +13186,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D58:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D59:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18B7A4-4E15-D548-9C5B-6625C99766B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CA4409-E4D2-D74D-8FC3-04486345CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
   <si>
     <t>名称</t>
   </si>
@@ -595,6 +595,14 @@
 可以直接在原数组上根据index来控制
 这样也可以使用hashMap来进行查询优化</t>
   </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>前序和后序确定的二叉树并不是唯一的。
+我们的做法是先通过前序确定当前的root,再将后一个确定为root.left
+在后序遍历结果中寻找左子树根节点的值，从而确定了左子树的索引边界，递归构造左右子树即可</t>
+  </si>
 </sst>
 </file>
 
@@ -603,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -737,6 +745,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -763,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +883,18 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6816,7 +6851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:G58"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9263,14 +9298,28 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="16">
-      <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+    <row r="59" spans="1:26" ht="56">
+      <c r="A59" s="33">
+        <v>889</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="35">
+        <v>44711</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -13186,7 +13235,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D59:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D60:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CA4409-E4D2-D74D-8FC3-04486345CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD31DD0-010F-AC43-AF3A-A9ED34C82E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="165">
   <si>
     <t>名称</t>
   </si>
@@ -602,6 +602,12 @@
     <t>前序和后序确定的二叉树并不是唯一的。
 我们的做法是先通过前序确定当前的root,再将后一个确定为root.left
 在后序遍历结果中寻找左子树根节点的值，从而确定了左子树的索引边界，递归构造左右子树即可</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>和前两题类似</t>
   </si>
 </sst>
 </file>
@@ -6851,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:G59"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9340,14 +9346,28 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="16">
-      <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+    <row r="60" spans="1:26">
+      <c r="A60" s="33">
+        <v>106</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="35">
+        <v>44711</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -13235,7 +13255,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D60:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D61:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD31DD0-010F-AC43-AF3A-A9ED34C82E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19872D2B-A924-8448-B7E1-CF0E69403C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="167">
   <si>
     <t>名称</t>
   </si>
@@ -608,6 +608,14 @@
   </si>
   <si>
     <t>和前两题类似</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>利用前中后序遍历以及层级遍历都可以实现。
+转化为String的时候记得用StringBuilder
+String转化为树的时候，先转化为链表的形式，每转化一个，将链表对应元素poll出来</t>
   </si>
 </sst>
 </file>
@@ -6857,7 +6865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:G60"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9388,14 +9396,28 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="16">
-      <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+    <row r="61" spans="1:26" ht="56">
+      <c r="A61" s="33">
+        <v>297</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="35">
+        <v>44712</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -13255,7 +13277,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D61:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D62:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19872D2B-A924-8448-B7E1-CF0E69403C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D45B95-4D11-6449-A4EA-FCCB85707102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,10 @@
   <si>
     <t>利用前中后序遍历以及层级遍历都可以实现。
 转化为String的时候记得用StringBuilder
-String转化为树的时候，先转化为链表的形式，每转化一个，将链表对应元素poll出来</t>
+String转化为树的时候，先转化为链表的形式，每转化一个，将链表对应元素poll出来
+后序遍历：和前序遍历做法类似，在解序列化的时候从后往前，先构造右子树
+中序遍历：中序遍历是行不通的，可以序列化，但是不能解序列化
+层级遍历：层级遍历序列化的时候也要表示出空节点，反序列化的时候要将不是null的节点入队列</t>
   </si>
 </sst>
 </file>
@@ -6865,7 +6868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:G61"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9396,7 +9399,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="56">
+    <row r="61" spans="1:26" ht="126">
       <c r="A61" s="33">
         <v>297</v>
       </c>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D45B95-4D11-6449-A4EA-FCCB85707102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF09E2F-8DE3-2347-9D59-62CBA183D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="170">
   <si>
     <t>名称</t>
   </si>
@@ -619,6 +619,16 @@
 后序遍历：和前序遍历做法类似，在解序列化的时候从后往前，先构造右子树
 中序遍历：中序遍历是行不通的，可以序列化，但是不能解序列化
 层级遍历：层级遍历序列化的时候也要表示出空节点，反序列化的时候要将不是null的节点入队列</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree </t>
+  </si>
+  <si>
+    <t>当时困惑的点在于如何判断两棵子树是相等的？
+需要联想到上一题序列化的方法，可以将树作为字符串的形式存储，然后再进行比较</t>
   </si>
 </sst>
 </file>
@@ -6868,7 +6878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9441,14 +9451,28 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="16">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+    <row r="62" spans="1:26" ht="42">
+      <c r="A62" s="33">
+        <v>652</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="35">
+        <v>44713</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -13280,7 +13304,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D62:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D63:D198" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAAD5D-E032-8E42-8C41-FAF707072B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9840" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资料分享" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="175">
   <si>
     <t>名称</t>
   </si>
@@ -711,19 +717,23 @@
       <t>merge的时候采用双指针合并的办法，合并的时候注意需要新开辟一个辅助数组，不能在原数组上进行合并</t>
     </r>
   </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>归并排序在merge的时候可以知道数组后半段有多少元素比当前元素小
+由于count和一开始的nums顺序一一对应
+所以需要用Pair来记录原数组</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -767,7 +777,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -807,358 +817,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1166,251 +845,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,28 +895,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1489,61 +926,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1801,26 +1194,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:26">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1245,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" ht="13.2" spans="1:26">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1277,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" ht="13.2" spans="1:26">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7435,27 +6826,25 @@
       <c r="Z200" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://programmercarl.com/"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://labuladong.gitee.io/algo/"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:G63"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -7467,7 +6856,7 @@
     <col min="8" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:26">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7509,7 +6898,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" ht="132" spans="1:26">
+    <row r="2" spans="1:26" ht="170">
       <c r="A2" s="2">
         <v>847</v>
       </c>
@@ -7551,7 +6940,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" ht="27" spans="1:26">
+    <row r="3" spans="1:26" ht="34">
       <c r="A3" s="2">
         <v>1306</v>
       </c>
@@ -7593,7 +6982,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" ht="80" spans="1:26">
+    <row r="4" spans="1:26" ht="85">
       <c r="A4" s="2">
         <v>1345</v>
       </c>
@@ -7635,7 +7024,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" ht="93" spans="1:26">
+    <row r="5" spans="1:26" ht="102">
       <c r="A5" s="2">
         <v>1654</v>
       </c>
@@ -7677,7 +7066,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" ht="23" spans="1:26">
+    <row r="6" spans="1:26" ht="28">
       <c r="A6" s="4">
         <v>433</v>
       </c>
@@ -7719,7 +7108,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" ht="34" spans="1:26">
+    <row r="7" spans="1:26" ht="42">
       <c r="A7" s="4">
         <v>752</v>
       </c>
@@ -7803,7 +7192,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" ht="45" spans="1:26">
+    <row r="9" spans="1:26" ht="42">
       <c r="A9" s="4">
         <v>1557</v>
       </c>
@@ -7845,7 +7234,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" ht="34" spans="1:26">
+    <row r="10" spans="1:26" ht="42">
       <c r="A10" s="4">
         <v>785</v>
       </c>
@@ -7927,7 +7316,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" ht="45" spans="1:26">
+    <row r="12" spans="1:26" ht="42">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7969,7 +7358,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" ht="68" spans="1:26">
+    <row r="13" spans="1:26" ht="70">
       <c r="A13" s="4">
         <v>134</v>
       </c>
@@ -8011,7 +7400,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" ht="34" spans="1:26">
+    <row r="14" spans="1:26" ht="42">
       <c r="A14" s="4">
         <v>452</v>
       </c>
@@ -8053,7 +7442,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" ht="45" spans="1:26">
+    <row r="15" spans="1:26" ht="56">
       <c r="A15" s="4">
         <v>1024</v>
       </c>
@@ -8137,7 +7526,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" ht="34" spans="1:26">
+    <row r="17" spans="1:26" ht="42">
       <c r="A17" s="4">
         <v>560</v>
       </c>
@@ -8473,7 +7862,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" ht="90" spans="1:26">
+    <row r="25" spans="1:26" ht="70">
       <c r="A25" s="4">
         <v>567</v>
       </c>
@@ -8557,7 +7946,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" ht="34" spans="1:26">
+    <row r="27" spans="1:26" ht="42">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -8641,7 +8030,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" ht="56" spans="1:26">
+    <row r="29" spans="1:26" ht="56">
       <c r="A29" s="4">
         <v>875</v>
       </c>
@@ -8767,7 +8156,7 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32" ht="68" spans="1:26">
+    <row r="32" spans="1:26" ht="84">
       <c r="A32" s="4">
         <v>870</v>
       </c>
@@ -8809,7 +8198,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" ht="23" spans="1:26">
+    <row r="33" spans="1:26" ht="28">
       <c r="A33" s="4">
         <v>206</v>
       </c>
@@ -8851,7 +8240,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" ht="56" spans="1:26">
+    <row r="34" spans="1:26" ht="70">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
@@ -8935,7 +8324,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36" ht="34" spans="1:26">
+    <row r="36" spans="1:26" ht="28">
       <c r="A36" s="4">
         <v>921</v>
       </c>
@@ -9019,7 +8408,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" ht="34" spans="1:26">
+    <row r="38" spans="1:26" ht="42">
       <c r="A38" s="4">
         <v>496</v>
       </c>
@@ -9061,7 +8450,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" ht="34" spans="1:26">
+    <row r="39" spans="1:26" ht="42">
       <c r="A39" s="4">
         <v>503</v>
       </c>
@@ -9103,7 +8492,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" ht="23" spans="1:26">
+    <row r="40" spans="1:26" ht="28">
       <c r="A40" s="4">
         <v>739</v>
       </c>
@@ -9145,7 +8534,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" ht="68" spans="1:26">
+    <row r="41" spans="1:26" ht="84">
       <c r="A41" s="4">
         <v>239</v>
       </c>
@@ -9187,7 +8576,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" ht="168" spans="1:26">
+    <row r="42" spans="1:26" ht="196">
       <c r="A42" s="4">
         <v>316</v>
       </c>
@@ -9271,7 +8660,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" ht="101" spans="1:26">
+    <row r="44" spans="1:26" ht="126">
       <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
@@ -9313,7 +8702,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" ht="79" spans="1:26">
+    <row r="45" spans="1:26" ht="84">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
@@ -9355,7 +8744,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" ht="90" spans="1:26">
+    <row r="46" spans="1:26" ht="98">
       <c r="A46" s="4">
         <v>382</v>
       </c>
@@ -9439,7 +8828,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" ht="56" spans="1:26">
+    <row r="48" spans="1:26" ht="70">
       <c r="A48" s="4">
         <v>380</v>
       </c>
@@ -9481,7 +8870,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" ht="45" spans="1:26">
+    <row r="49" spans="1:26" ht="56">
       <c r="A49" s="4">
         <v>710</v>
       </c>
@@ -9523,7 +8912,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" ht="34" spans="1:26">
+    <row r="50" spans="1:26" ht="42">
       <c r="A50" s="4">
         <v>295</v>
       </c>
@@ -9565,7 +8954,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
     </row>
-    <row r="51" ht="101" spans="1:26">
+    <row r="51" spans="1:26" ht="126">
       <c r="A51" s="8">
         <v>224227772</v>
       </c>
@@ -9607,7 +8996,7 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
     </row>
-    <row r="52" ht="45" spans="1:26">
+    <row r="52" spans="1:26" ht="56">
       <c r="A52" s="4">
         <v>104</v>
       </c>
@@ -9691,7 +9080,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" ht="34" spans="1:26">
+    <row r="54" spans="1:26" ht="42">
       <c r="A54" s="4">
         <v>226</v>
       </c>
@@ -9773,7 +9162,7 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" ht="45" spans="1:26">
+    <row r="56" spans="1:26" ht="56">
       <c r="A56" s="4">
         <v>114</v>
       </c>
@@ -9815,7 +9204,7 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" ht="23" spans="1:26">
+    <row r="57" spans="1:26" ht="28">
       <c r="A57" s="4">
         <v>654</v>
       </c>
@@ -9857,7 +9246,7 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" ht="56" spans="1:26">
+    <row r="58" spans="1:26" ht="70">
       <c r="A58" s="4">
         <v>105</v>
       </c>
@@ -9899,7 +9288,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" ht="56" spans="1:26">
+    <row r="59" spans="1:26" ht="56">
       <c r="A59" s="9">
         <v>889</v>
       </c>
@@ -9983,7 +9372,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" ht="112" spans="1:26">
+    <row r="61" spans="1:26" ht="126">
       <c r="A61" s="9">
         <v>297</v>
       </c>
@@ -10025,7 +9414,7 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" ht="34" spans="1:26">
+    <row r="62" spans="1:26" ht="42">
       <c r="A62" s="9">
         <v>652</v>
       </c>
@@ -10067,7 +9456,7 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" ht="68" spans="1:26">
+    <row r="63" spans="1:26" ht="84">
       <c r="A63" s="11">
         <v>912</v>
       </c>
@@ -10109,14 +9498,28 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
     </row>
-    <row r="64" ht="13.2" spans="1:26">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
+    <row r="64" spans="1:26" ht="56">
+      <c r="A64" s="4">
+        <v>315</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="18">
+        <v>44715</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -10137,7 +9540,7 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" ht="13.2" spans="1:26">
+    <row r="65" spans="1:26" ht="16">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="13"/>
@@ -10165,7 +9568,7 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" ht="13.2" spans="1:26">
+    <row r="66" spans="1:26" ht="16">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="13"/>
@@ -10193,7 +9596,7 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" ht="13.2" spans="1:26">
+    <row r="67" spans="1:26" ht="16">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="13"/>
@@ -10221,7 +9624,7 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" ht="13.2" spans="1:26">
+    <row r="68" spans="1:26" ht="16">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="13"/>
@@ -10249,7 +9652,7 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
     </row>
-    <row r="69" ht="13.2" spans="1:26">
+    <row r="69" spans="1:26" ht="16">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -10277,7 +9680,7 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" ht="13.2" spans="1:26">
+    <row r="70" spans="1:26" ht="16">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -10305,7 +9708,7 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
     </row>
-    <row r="71" ht="13.2" spans="1:26">
+    <row r="71" spans="1:26" ht="16">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -10333,7 +9736,7 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
     </row>
-    <row r="72" ht="13.2" spans="1:26">
+    <row r="72" spans="1:26" ht="16">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -10361,7 +9764,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
     </row>
-    <row r="73" ht="13.2" spans="1:26">
+    <row r="73" spans="1:26" ht="16">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -10389,7 +9792,7 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
     </row>
-    <row r="74" ht="13.2" spans="1:26">
+    <row r="74" spans="1:26" ht="16">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -10417,7 +9820,7 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
     </row>
-    <row r="75" ht="13.2" spans="1:26">
+    <row r="75" spans="1:26" ht="16">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -10445,7 +9848,7 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
     </row>
-    <row r="76" ht="13.2" spans="1:26">
+    <row r="76" spans="1:26" ht="16">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -10473,7 +9876,7 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" ht="13.2" spans="1:26">
+    <row r="77" spans="1:26" ht="16">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -10501,7 +9904,7 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" ht="13.2" spans="1:26">
+    <row r="78" spans="1:26" ht="16">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -10529,7 +9932,7 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
     </row>
-    <row r="79" ht="13.2" spans="1:26">
+    <row r="79" spans="1:26" ht="16">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -10557,7 +9960,7 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
     </row>
-    <row r="80" ht="13.2" spans="1:26">
+    <row r="80" spans="1:26" ht="16">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -10585,7 +9988,7 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" ht="13.2" spans="1:26">
+    <row r="81" spans="1:26" ht="16">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -10613,7 +10016,7 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
     </row>
-    <row r="82" ht="13.2" spans="1:26">
+    <row r="82" spans="1:26" ht="16">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -10641,7 +10044,7 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
     </row>
-    <row r="83" ht="13.2" spans="1:26">
+    <row r="83" spans="1:26" ht="16">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -10669,7 +10072,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
     </row>
-    <row r="84" ht="13.2" spans="1:26">
+    <row r="84" spans="1:26" ht="16">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -10697,7 +10100,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
     </row>
-    <row r="85" ht="13.2" spans="1:26">
+    <row r="85" spans="1:26" ht="16">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -10725,7 +10128,7 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
     </row>
-    <row r="86" ht="13.2" spans="1:26">
+    <row r="86" spans="1:26" ht="16">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -10753,7 +10156,7 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
     </row>
-    <row r="87" ht="13.2" spans="1:26">
+    <row r="87" spans="1:26" ht="16">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -10781,7 +10184,7 @@
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
     </row>
-    <row r="88" ht="13.2" spans="1:26">
+    <row r="88" spans="1:26" ht="16">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -10809,7 +10212,7 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
     </row>
-    <row r="89" ht="13.2" spans="1:26">
+    <row r="89" spans="1:26" ht="16">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -10837,7 +10240,7 @@
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
     </row>
-    <row r="90" ht="13.2" spans="1:26">
+    <row r="90" spans="1:26" ht="16">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -10865,7 +10268,7 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
     </row>
-    <row r="91" ht="13.2" spans="1:26">
+    <row r="91" spans="1:26" ht="16">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -10893,7 +10296,7 @@
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
     </row>
-    <row r="92" ht="13.2" spans="1:26">
+    <row r="92" spans="1:26" ht="16">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -10921,7 +10324,7 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
     </row>
-    <row r="93" ht="13.2" spans="1:26">
+    <row r="93" spans="1:26" ht="16">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -10949,7 +10352,7 @@
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
     </row>
-    <row r="94" ht="13.2" spans="1:26">
+    <row r="94" spans="1:26" ht="16">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -10977,7 +10380,7 @@
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
     </row>
-    <row r="95" ht="13.2" spans="1:26">
+    <row r="95" spans="1:26" ht="16">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -11005,7 +10408,7 @@
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
     </row>
-    <row r="96" ht="13.2" spans="1:26">
+    <row r="96" spans="1:26" ht="16">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -11033,7 +10436,7 @@
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
     </row>
-    <row r="97" ht="13.2" spans="1:26">
+    <row r="97" spans="1:26" ht="16">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -11061,7 +10464,7 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
     </row>
-    <row r="98" ht="13.2" spans="1:26">
+    <row r="98" spans="1:26" ht="16">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -11089,7 +10492,7 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
     </row>
-    <row r="99" ht="13.2" spans="1:26">
+    <row r="99" spans="1:26" ht="16">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -11117,7 +10520,7 @@
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
     </row>
-    <row r="100" ht="13.2" spans="1:26">
+    <row r="100" spans="1:26" ht="16">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -11145,7 +10548,7 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
     </row>
-    <row r="101" ht="13.2" spans="1:26">
+    <row r="101" spans="1:26" ht="16">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -11173,7 +10576,7 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
     </row>
-    <row r="102" ht="13.2" spans="1:26">
+    <row r="102" spans="1:26" ht="16">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -11201,7 +10604,7 @@
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
     </row>
-    <row r="103" ht="13.2" spans="1:26">
+    <row r="103" spans="1:26" ht="16">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -11229,7 +10632,7 @@
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
     </row>
-    <row r="104" ht="13.2" spans="1:26">
+    <row r="104" spans="1:26" ht="16">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -11257,7 +10660,7 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
     </row>
-    <row r="105" ht="13.2" spans="1:26">
+    <row r="105" spans="1:26" ht="16">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -11285,7 +10688,7 @@
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
     </row>
-    <row r="106" ht="13.2" spans="1:26">
+    <row r="106" spans="1:26" ht="16">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -11313,7 +10716,7 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
     </row>
-    <row r="107" ht="13.2" spans="1:26">
+    <row r="107" spans="1:26" ht="16">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -11341,7 +10744,7 @@
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
     </row>
-    <row r="108" ht="13.2" spans="1:26">
+    <row r="108" spans="1:26" ht="16">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -11369,7 +10772,7 @@
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
     </row>
-    <row r="109" ht="13.2" spans="1:26">
+    <row r="109" spans="1:26" ht="16">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -11397,7 +10800,7 @@
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
     </row>
-    <row r="110" ht="13.2" spans="1:26">
+    <row r="110" spans="1:26" ht="16">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -11425,7 +10828,7 @@
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
     </row>
-    <row r="111" ht="13.2" spans="1:26">
+    <row r="111" spans="1:26" ht="16">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -11453,7 +10856,7 @@
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
     </row>
-    <row r="112" ht="13.2" spans="1:26">
+    <row r="112" spans="1:26" ht="16">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -11481,7 +10884,7 @@
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
     </row>
-    <row r="113" ht="13.2" spans="1:26">
+    <row r="113" spans="1:26" ht="16">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -11509,7 +10912,7 @@
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
     </row>
-    <row r="114" ht="13.2" spans="1:26">
+    <row r="114" spans="1:26" ht="16">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -11537,7 +10940,7 @@
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
     </row>
-    <row r="115" ht="13.2" spans="1:26">
+    <row r="115" spans="1:26" ht="16">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -11565,7 +10968,7 @@
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
     </row>
-    <row r="116" ht="13.2" spans="1:26">
+    <row r="116" spans="1:26" ht="16">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -11593,7 +10996,7 @@
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
     </row>
-    <row r="117" ht="13.2" spans="1:26">
+    <row r="117" spans="1:26" ht="16">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -11621,7 +11024,7 @@
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
     </row>
-    <row r="118" ht="13.2" spans="1:26">
+    <row r="118" spans="1:26" ht="16">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -11649,7 +11052,7 @@
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
     </row>
-    <row r="119" ht="13.2" spans="1:26">
+    <row r="119" spans="1:26" ht="16">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -11677,7 +11080,7 @@
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
     </row>
-    <row r="120" ht="13.2" spans="1:26">
+    <row r="120" spans="1:26" ht="16">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -11705,7 +11108,7 @@
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
     </row>
-    <row r="121" ht="13.2" spans="1:26">
+    <row r="121" spans="1:26" ht="16">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -11733,7 +11136,7 @@
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
     </row>
-    <row r="122" ht="13.2" spans="1:26">
+    <row r="122" spans="1:26" ht="16">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -11761,7 +11164,7 @@
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
     </row>
-    <row r="123" ht="13.2" spans="1:26">
+    <row r="123" spans="1:26" ht="16">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -11789,7 +11192,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
     </row>
-    <row r="124" ht="13.2" spans="1:26">
+    <row r="124" spans="1:26" ht="16">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -11817,7 +11220,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
     </row>
-    <row r="125" ht="13.2" spans="1:26">
+    <row r="125" spans="1:26" ht="16">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -11845,7 +11248,7 @@
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
     </row>
-    <row r="126" ht="13.2" spans="1:26">
+    <row r="126" spans="1:26" ht="16">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -11873,7 +11276,7 @@
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
     </row>
-    <row r="127" ht="13.2" spans="1:26">
+    <row r="127" spans="1:26" ht="16">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -11901,7 +11304,7 @@
       <c r="Y127" s="13"/>
       <c r="Z127" s="13"/>
     </row>
-    <row r="128" ht="13.2" spans="1:26">
+    <row r="128" spans="1:26" ht="16">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -11929,7 +11332,7 @@
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
     </row>
-    <row r="129" ht="13.2" spans="1:26">
+    <row r="129" spans="1:26" ht="16">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -11957,7 +11360,7 @@
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
     </row>
-    <row r="130" ht="13.2" spans="1:26">
+    <row r="130" spans="1:26" ht="16">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -11985,7 +11388,7 @@
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
     </row>
-    <row r="131" ht="13.2" spans="1:26">
+    <row r="131" spans="1:26" ht="16">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -12013,7 +11416,7 @@
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
     </row>
-    <row r="132" ht="13.2" spans="1:26">
+    <row r="132" spans="1:26" ht="16">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -12041,7 +11444,7 @@
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
     </row>
-    <row r="133" ht="13.2" spans="1:26">
+    <row r="133" spans="1:26" ht="16">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -12069,7 +11472,7 @@
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
     </row>
-    <row r="134" ht="13.2" spans="1:26">
+    <row r="134" spans="1:26" ht="16">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -12097,7 +11500,7 @@
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
     </row>
-    <row r="135" ht="13.2" spans="1:26">
+    <row r="135" spans="1:26" ht="16">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -12125,7 +11528,7 @@
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
     </row>
-    <row r="136" ht="13.2" spans="1:26">
+    <row r="136" spans="1:26" ht="16">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -12153,7 +11556,7 @@
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
     </row>
-    <row r="137" ht="13.2" spans="1:26">
+    <row r="137" spans="1:26" ht="16">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -12181,7 +11584,7 @@
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
     </row>
-    <row r="138" ht="13.2" spans="1:26">
+    <row r="138" spans="1:26" ht="16">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -12209,7 +11612,7 @@
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
     </row>
-    <row r="139" ht="13.2" spans="1:26">
+    <row r="139" spans="1:26" ht="16">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -12237,7 +11640,7 @@
       <c r="Y139" s="13"/>
       <c r="Z139" s="13"/>
     </row>
-    <row r="140" ht="13.2" spans="1:26">
+    <row r="140" spans="1:26" ht="16">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -12265,7 +11668,7 @@
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
     </row>
-    <row r="141" ht="13.2" spans="1:26">
+    <row r="141" spans="1:26" ht="16">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -12293,7 +11696,7 @@
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
     </row>
-    <row r="142" ht="13.2" spans="1:26">
+    <row r="142" spans="1:26" ht="16">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -12321,7 +11724,7 @@
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
     </row>
-    <row r="143" ht="13.2" spans="1:26">
+    <row r="143" spans="1:26" ht="16">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -12349,7 +11752,7 @@
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
     </row>
-    <row r="144" ht="13.2" spans="1:26">
+    <row r="144" spans="1:26" ht="16">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -12377,7 +11780,7 @@
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
     </row>
-    <row r="145" ht="13.2" spans="1:26">
+    <row r="145" spans="1:26" ht="16">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -12405,7 +11808,7 @@
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
     </row>
-    <row r="146" ht="13.2" spans="1:26">
+    <row r="146" spans="1:26" ht="16">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -12433,7 +11836,7 @@
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
     </row>
-    <row r="147" ht="13.2" spans="1:26">
+    <row r="147" spans="1:26" ht="16">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -12461,7 +11864,7 @@
       <c r="Y147" s="13"/>
       <c r="Z147" s="13"/>
     </row>
-    <row r="148" ht="13.2" spans="1:26">
+    <row r="148" spans="1:26" ht="16">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -12489,7 +11892,7 @@
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
     </row>
-    <row r="149" ht="13.2" spans="1:26">
+    <row r="149" spans="1:26" ht="16">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -12517,7 +11920,7 @@
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
     </row>
-    <row r="150" ht="13.2" spans="1:26">
+    <row r="150" spans="1:26" ht="16">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -12545,7 +11948,7 @@
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
     </row>
-    <row r="151" ht="13.2" spans="1:26">
+    <row r="151" spans="1:26" ht="16">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -12573,7 +11976,7 @@
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
     </row>
-    <row r="152" ht="13.2" spans="1:26">
+    <row r="152" spans="1:26" ht="16">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -12601,7 +12004,7 @@
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
     </row>
-    <row r="153" ht="13.2" spans="1:26">
+    <row r="153" spans="1:26" ht="16">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -12629,7 +12032,7 @@
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
     </row>
-    <row r="154" ht="13.2" spans="1:26">
+    <row r="154" spans="1:26" ht="16">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -12657,7 +12060,7 @@
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
     </row>
-    <row r="155" ht="13.2" spans="1:26">
+    <row r="155" spans="1:26" ht="16">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -12685,7 +12088,7 @@
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
     </row>
-    <row r="156" ht="13.2" spans="1:26">
+    <row r="156" spans="1:26" ht="16">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -12713,7 +12116,7 @@
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
     </row>
-    <row r="157" ht="13.2" spans="1:26">
+    <row r="157" spans="1:26" ht="16">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -12741,7 +12144,7 @@
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
     </row>
-    <row r="158" ht="13.2" spans="1:26">
+    <row r="158" spans="1:26" ht="16">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -12769,7 +12172,7 @@
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
     </row>
-    <row r="159" ht="13.2" spans="1:26">
+    <row r="159" spans="1:26" ht="16">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -12797,7 +12200,7 @@
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
     </row>
-    <row r="160" ht="13.2" spans="1:26">
+    <row r="160" spans="1:26" ht="16">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -12825,7 +12228,7 @@
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
     </row>
-    <row r="161" ht="13.2" spans="1:26">
+    <row r="161" spans="1:26" ht="16">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -12853,7 +12256,7 @@
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
     </row>
-    <row r="162" ht="13.2" spans="1:26">
+    <row r="162" spans="1:26" ht="16">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -12881,7 +12284,7 @@
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
     </row>
-    <row r="163" ht="13.2" spans="1:26">
+    <row r="163" spans="1:26" ht="16">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -12909,7 +12312,7 @@
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
     </row>
-    <row r="164" ht="13.2" spans="1:26">
+    <row r="164" spans="1:26" ht="16">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -12937,7 +12340,7 @@
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
     </row>
-    <row r="165" ht="13.2" spans="1:26">
+    <row r="165" spans="1:26" ht="16">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -12965,7 +12368,7 @@
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
     </row>
-    <row r="166" ht="13.2" spans="1:26">
+    <row r="166" spans="1:26" ht="16">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -12993,7 +12396,7 @@
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
     </row>
-    <row r="167" ht="13.2" spans="1:26">
+    <row r="167" spans="1:26" ht="16">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -13021,7 +12424,7 @@
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
     </row>
-    <row r="168" ht="13.2" spans="1:26">
+    <row r="168" spans="1:26" ht="16">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -13049,7 +12452,7 @@
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
     </row>
-    <row r="169" ht="13.2" spans="1:26">
+    <row r="169" spans="1:26" ht="16">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -13077,7 +12480,7 @@
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
     </row>
-    <row r="170" ht="13.2" spans="1:26">
+    <row r="170" spans="1:26" ht="16">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -13105,7 +12508,7 @@
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
     </row>
-    <row r="171" ht="13.2" spans="1:26">
+    <row r="171" spans="1:26" ht="16">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -13133,7 +12536,7 @@
       <c r="Y171" s="13"/>
       <c r="Z171" s="13"/>
     </row>
-    <row r="172" ht="13.2" spans="1:26">
+    <row r="172" spans="1:26" ht="16">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -13161,7 +12564,7 @@
       <c r="Y172" s="13"/>
       <c r="Z172" s="13"/>
     </row>
-    <row r="173" ht="13.2" spans="1:26">
+    <row r="173" spans="1:26" ht="16">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -13189,7 +12592,7 @@
       <c r="Y173" s="13"/>
       <c r="Z173" s="13"/>
     </row>
-    <row r="174" ht="13.2" spans="1:26">
+    <row r="174" spans="1:26" ht="16">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -13217,7 +12620,7 @@
       <c r="Y174" s="13"/>
       <c r="Z174" s="13"/>
     </row>
-    <row r="175" ht="13.2" spans="1:26">
+    <row r="175" spans="1:26" ht="16">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -13245,7 +12648,7 @@
       <c r="Y175" s="13"/>
       <c r="Z175" s="13"/>
     </row>
-    <row r="176" ht="13.2" spans="1:26">
+    <row r="176" spans="1:26" ht="16">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -13273,7 +12676,7 @@
       <c r="Y176" s="13"/>
       <c r="Z176" s="13"/>
     </row>
-    <row r="177" ht="13.2" spans="1:26">
+    <row r="177" spans="1:26" ht="16">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -13301,7 +12704,7 @@
       <c r="Y177" s="13"/>
       <c r="Z177" s="13"/>
     </row>
-    <row r="178" ht="13.2" spans="1:26">
+    <row r="178" spans="1:26" ht="16">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -13329,7 +12732,7 @@
       <c r="Y178" s="13"/>
       <c r="Z178" s="13"/>
     </row>
-    <row r="179" ht="13.2" spans="1:26">
+    <row r="179" spans="1:26" ht="16">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -13357,7 +12760,7 @@
       <c r="Y179" s="13"/>
       <c r="Z179" s="13"/>
     </row>
-    <row r="180" ht="13.2" spans="1:26">
+    <row r="180" spans="1:26" ht="16">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -13385,7 +12788,7 @@
       <c r="Y180" s="13"/>
       <c r="Z180" s="13"/>
     </row>
-    <row r="181" ht="13.2" spans="1:26">
+    <row r="181" spans="1:26" ht="16">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -13413,7 +12816,7 @@
       <c r="Y181" s="13"/>
       <c r="Z181" s="13"/>
     </row>
-    <row r="182" ht="13.2" spans="1:26">
+    <row r="182" spans="1:26" ht="16">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -13441,7 +12844,7 @@
       <c r="Y182" s="13"/>
       <c r="Z182" s="13"/>
     </row>
-    <row r="183" ht="13.2" spans="1:26">
+    <row r="183" spans="1:26" ht="16">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -13469,7 +12872,7 @@
       <c r="Y183" s="13"/>
       <c r="Z183" s="13"/>
     </row>
-    <row r="184" ht="13.2" spans="1:26">
+    <row r="184" spans="1:26" ht="16">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -13497,7 +12900,7 @@
       <c r="Y184" s="13"/>
       <c r="Z184" s="13"/>
     </row>
-    <row r="185" ht="13.2" spans="1:26">
+    <row r="185" spans="1:26" ht="16">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -13525,7 +12928,7 @@
       <c r="Y185" s="13"/>
       <c r="Z185" s="13"/>
     </row>
-    <row r="186" ht="13.2" spans="1:26">
+    <row r="186" spans="1:26" ht="16">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -13553,7 +12956,7 @@
       <c r="Y186" s="13"/>
       <c r="Z186" s="13"/>
     </row>
-    <row r="187" ht="13.2" spans="1:26">
+    <row r="187" spans="1:26" ht="16">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -13581,7 +12984,7 @@
       <c r="Y187" s="13"/>
       <c r="Z187" s="13"/>
     </row>
-    <row r="188" ht="13.2" spans="1:26">
+    <row r="188" spans="1:26" ht="16">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -13609,7 +13012,7 @@
       <c r="Y188" s="13"/>
       <c r="Z188" s="13"/>
     </row>
-    <row r="189" ht="13.2" spans="1:26">
+    <row r="189" spans="1:26" ht="16">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -13637,7 +13040,7 @@
       <c r="Y189" s="13"/>
       <c r="Z189" s="13"/>
     </row>
-    <row r="190" ht="13.2" spans="1:26">
+    <row r="190" spans="1:26" ht="16">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -13665,7 +13068,7 @@
       <c r="Y190" s="13"/>
       <c r="Z190" s="13"/>
     </row>
-    <row r="191" ht="13.2" spans="1:26">
+    <row r="191" spans="1:26" ht="16">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -13693,7 +13096,7 @@
       <c r="Y191" s="13"/>
       <c r="Z191" s="13"/>
     </row>
-    <row r="192" ht="13.2" spans="1:26">
+    <row r="192" spans="1:26" ht="16">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -13721,7 +13124,7 @@
       <c r="Y192" s="13"/>
       <c r="Z192" s="13"/>
     </row>
-    <row r="193" ht="13.2" spans="1:26">
+    <row r="193" spans="1:26" ht="16">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -13749,7 +13152,7 @@
       <c r="Y193" s="13"/>
       <c r="Z193" s="13"/>
     </row>
-    <row r="194" ht="13.2" spans="1:26">
+    <row r="194" spans="1:26" ht="16">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -13777,7 +13180,7 @@
       <c r="Y194" s="13"/>
       <c r="Z194" s="13"/>
     </row>
-    <row r="195" ht="13.2" spans="1:26">
+    <row r="195" spans="1:26" ht="16">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -13805,7 +13208,7 @@
       <c r="Y195" s="13"/>
       <c r="Z195" s="13"/>
     </row>
-    <row r="196" ht="13.2" spans="1:26">
+    <row r="196" spans="1:26" ht="16">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -13833,7 +13236,7 @@
       <c r="Y196" s="13"/>
       <c r="Z196" s="13"/>
     </row>
-    <row r="197" ht="13.2" spans="1:26">
+    <row r="197" spans="1:26" ht="16">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -13861,7 +13264,7 @@
       <c r="Y197" s="13"/>
       <c r="Z197" s="13"/>
     </row>
-    <row r="198" ht="13.2" spans="1:26">
+    <row r="198" spans="1:26" ht="16">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -13890,12 +13293,12 @@
       <c r="Z198" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D64:D198" errorStyle="warning">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D65:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAAD5D-E032-8E42-8C41-FAF707072B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DF0A0-24B0-6B4F-8233-B889061D704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="177">
   <si>
     <t>名称</t>
   </si>
@@ -725,13 +725,21 @@
 由于count和一开始的nums顺序一一对应
 所以需要用Pair来记录原数组</t>
   </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>通过改在归并排序的merge方法
+由于需要满足nums[i] &gt; 2 * nums[j] 可以弄两个指针
+注意2*nums[j]可能溢出，需要转化为long</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -895,28 +903,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6841,7 +6849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:G64"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9540,14 +9548,28 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="1:26" ht="16">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+    <row r="65" spans="1:26" ht="42">
+      <c r="A65" s="4">
+        <v>493</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="18">
+        <v>44715</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -13295,7 +13317,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D65:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D66:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DF0A0-24B0-6B4F-8233-B889061D704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B7D63-E2F4-9441-881D-BFA36C57BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>名称</t>
   </si>
@@ -732,6 +732,14 @@
     <t>通过改在归并排序的merge方法
 由于需要满足nums[i] &gt; 2 * nums[j] 可以弄两个指针
 注意2*nums[j]可能溢出，需要转化为long</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>遇到某个区间和的问题，想到前缀和的解法 preSum
+这道题是在preSum的基础上进行归并排序
+在merge的时候夹带私货，利用双指针找到满足条件的区间然后累加</t>
   </si>
 </sst>
 </file>
@@ -6849,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:G65"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9590,14 +9598,28 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" spans="1:26" ht="16">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
+    <row r="66" spans="1:26" ht="42">
+      <c r="A66" s="4">
+        <v>327</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="18">
+        <v>44717</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -13317,7 +13339,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D66:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D67:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B7D63-E2F4-9441-881D-BFA36C57BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B023035-FE91-2D4E-B86A-AF7D1FD06F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
   <si>
     <t>名称</t>
   </si>
@@ -740,6 +740,18 @@
     <t>遇到某个区间和的问题，想到前缀和的解法 preSum
 这道题是在preSum的基础上进行归并排序
 在merge的时候夹带私货，利用双指针找到满足条件的区间然后累加</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>BST的中序遍历是升序的
+如果利用中序遍历来得到结果 复杂度就是O(N)
+如果在TreeNode数据结构里面加一个size, 这样就知道当前根节点的子树有多少个节点
+从而推算出当前节点排第几</t>
   </si>
 </sst>
 </file>
@@ -6856,8 +6868,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:G66"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9640,14 +9652,28 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="1:26" ht="16">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+    <row r="67" spans="1:26" ht="70">
+      <c r="A67" s="4">
+        <v>230</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="18">
+        <v>44717</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -13339,7 +13365,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D67:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D68:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B023035-FE91-2D4E-B86A-AF7D1FD06F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B38ECF-57CC-D941-A1BD-5802D06167D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="186">
   <si>
     <t>名称</t>
   </si>
@@ -752,6 +752,19 @@
 如果利用中序遍历来得到结果 复杂度就是O(N)
 如果在TreeNode数据结构里面加一个size, 这样就知道当前根节点的子树有多少个节点
 从而推算出当前节点排第几</t>
+  </si>
+  <si>
+    <t>Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>核心还是BST中序遍历的特征
+修改了一下遍历顺序，先遍历右节点再遍历左节点</t>
+  </si>
+  <si>
+    <t>Binary Search Tree to Greater Sum Tree</t>
+  </si>
+  <si>
+    <t>和上题</t>
   </si>
 </sst>
 </file>
@@ -6868,8 +6881,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:G67"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9694,14 +9707,28 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" spans="1:26" ht="16">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+    <row r="68" spans="1:26" ht="28">
+      <c r="A68" s="4">
+        <v>538</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="18">
+        <v>44718</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -9722,14 +9749,28 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
     </row>
-    <row r="69" spans="1:26" ht="16">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+    <row r="69" spans="1:26">
+      <c r="A69" s="4">
+        <v>1038</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="18">
+        <v>44718</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -13365,7 +13406,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D68:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D70:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B38ECF-57CC-D941-A1BD-5802D06167D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503608D-9468-D14B-8739-6C68649A58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
   <si>
     <t>名称</t>
   </si>
@@ -765,6 +765,13 @@
   </si>
   <si>
     <t>和上题</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>判断是否是合法BST注意有坑，左子树的所有节点都比根节点小
+右子树的所有节点都要比根节点大，需要将根节点传下去限制范围</t>
   </si>
 </sst>
 </file>
@@ -6882,7 +6889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:G69"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9791,14 +9798,28 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" spans="1:26" ht="16">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
+    <row r="70" spans="1:26" ht="28">
+      <c r="A70" s="4">
+        <v>98</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="18">
+        <v>44718</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -13406,7 +13427,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D70:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D71:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503608D-9468-D14B-8739-6C68649A58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA46F19-5163-174E-BC54-1D6E086B86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="194">
   <si>
     <t>名称</t>
   </si>
@@ -772,6 +772,27 @@
   <si>
     <t>判断是否是合法BST注意有坑，左子树的所有节点都比根节点小
 右子树的所有节点都要比根节点大，需要将根节点传下去限制范围</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>利用BST左小右大的特性达到O(logN)的复杂度</t>
+  </si>
+  <si>
+    <t>Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST </t>
+  </si>
+  <si>
+    <t>注意几个点：
+1. 最好不要交换val值，需要操作节点的引用。需要和内部存储的数据域极结偶
+2. 一开始想到的是将左子树迁移到右子树最小节点下面，让右子树替换根节点，但是这样会让树的深度越来越长。
+3. 需要让右子树的最小值或者左子树的最大值来替换根节点</t>
   </si>
 </sst>
 </file>
@@ -6889,7 +6910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:G70"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9840,14 +9861,28 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
     </row>
-    <row r="71" spans="1:26" ht="16">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+    <row r="71" spans="1:26">
+      <c r="A71" s="4">
+        <v>700</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="18">
+        <v>44719</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
@@ -9868,14 +9903,28 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
     </row>
-    <row r="72" spans="1:26" ht="16">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+    <row r="72" spans="1:26">
+      <c r="A72" s="4">
+        <v>701</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="18">
+        <v>44719</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -9896,14 +9945,28 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
     </row>
-    <row r="73" spans="1:26" ht="16">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+    <row r="73" spans="1:26" ht="84">
+      <c r="A73" s="4">
+        <v>450</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="18">
+        <v>44719</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -13427,7 +13490,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D71:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D74:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA46F19-5163-174E-BC54-1D6E086B86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EECA02-7D67-9D48-A15E-7DD6D423A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="197">
   <si>
     <t>名称</t>
   </si>
@@ -793,6 +793,15 @@
 1. 最好不要交换val值，需要操作节点的引用。需要和内部存储的数据域极结偶
 2. 一开始想到的是将左子树迁移到右子树最小节点下面，让右子树替换根节点，但是这样会让树的深度越来越长。
 3. 需要让右子树的最小值或者左子树的最大值来替换根节点</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>注意重叠子问题，搞一个memo</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
   </si>
 </sst>
 </file>
@@ -6909,8 +6918,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:G73"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9987,14 +9996,28 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
     </row>
-    <row r="74" spans="1:26" ht="16">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+    <row r="74" spans="1:26">
+      <c r="A74" s="4">
+        <v>96</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="18">
+        <v>44720</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -10015,14 +10038,28 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
     </row>
-    <row r="75" spans="1:26" ht="16">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+    <row r="75" spans="1:26">
+      <c r="A75" s="4">
+        <v>95</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="18">
+        <v>44721</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -13490,7 +13527,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D74:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D76:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EECA02-7D67-9D48-A15E-7DD6D423A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB27BE3-3920-1D44-88C3-02CB3905A350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="199">
   <si>
     <t>名称</t>
   </si>
@@ -802,6 +802,20 @@
   </si>
   <si>
     <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Maximum Sum BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>需要知道四个信息：
+1. 左右子树是否为BST
+2. 左右子树加上自己是否为BST（左子树的最大值 &amp;&amp; 右子树的最小值）
+3. 左右子树的和
+利用后序遍历，返回一个数组，数组里面是我门关心的信息
+res[0] 以root为根的二叉树是否为BST 1是0不是
+res[1] 以root为BST根节点左子树的最大值
+res[2] 以root为BST根节点右子树的最小值
+res[3] 以root为根节点的子树和</t>
   </si>
 </sst>
 </file>
@@ -6919,7 +6933,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:G75"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10080,14 +10094,28 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
     </row>
-    <row r="76" spans="1:26" ht="16">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+    <row r="76" spans="1:26" ht="154">
+      <c r="A76" s="4">
+        <v>1373</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="18">
+        <v>44725</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -13527,7 +13555,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D76:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D77:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB27BE3-3920-1D44-88C3-02CB3905A350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8F0B9-878E-7647-933E-C6A8C5CB51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
   <si>
     <t>名称</t>
   </si>
@@ -816,6 +816,17 @@
 res[1] 以root为BST根节点左子树的最大值
 res[2] 以root为BST根节点右子树的最小值
 res[3] 以root为根节点的子树和</t>
+  </si>
+  <si>
+    <t>quick sort</t>
+  </si>
+  <si>
+    <t>快速排序是不稳定的排序，所以首先应该将原数组打乱，打乱可以用洗牌算法Knuth-Shuffle
+将数组分为已打乱和未打乱前后两个部分，每次随机从未打乱部分中选一个元素加入已打乱的部分。（未打乱和已打乱交换）
+快速排序的时候类似于树的前序遍历，复杂度主要集中在partition
+partition的时候通常选择第一个元素为pivot，大于它的放右边，小于放左边。
+保持[low, i) &lt;= pivot (j,high] &gt; pivot，要保证[low, high]的区间都被覆盖到
+最后将第一个元素和j交换</t>
   </si>
 </sst>
 </file>
@@ -6932,8 +6943,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:G76"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10136,14 +10147,28 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" spans="1:26" ht="16">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+    <row r="77" spans="1:26" ht="140">
+      <c r="A77" s="4">
+        <v>912</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="18">
+        <v>44727</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -13555,7 +13580,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D77:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D78:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8F0B9-878E-7647-933E-C6A8C5CB51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42021E-4B0A-6E4E-A62A-07C26B1E68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="204">
   <si>
     <t>名称</t>
   </si>
@@ -827,6 +827,15 @@
 partition的时候通常选择第一个元素为pivot，大于它的放右边，小于放左边。
 保持[low, i) &lt;= pivot (j,high] &gt; pivot，要保证[low, high]的区间都被覆盖到
 最后将第一个元素和j交换</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>小顶堆</t>
   </si>
 </sst>
 </file>
@@ -6943,8 +6952,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77:G77"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10189,14 +10198,28 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" spans="1:26" ht="16">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+    <row r="78" spans="1:26">
+      <c r="A78" s="4">
+        <v>215</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="18">
+        <v>44727</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -13580,7 +13603,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D78:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D79:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42021E-4B0A-6E4E-A62A-07C26B1E68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E82FE8-E274-B541-A5F8-BC6AA1B04FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="205">
   <si>
     <t>名称</t>
   </si>
@@ -836,6 +836,11 @@
   </si>
   <si>
     <t>小顶堆</t>
+  </si>
+  <si>
+    <t>也可以用快速排序来解决
+找升序排列 n-k个元素
+快速排序partiton函数知道某一个点的排名</t>
   </si>
 </sst>
 </file>
@@ -6953,7 +6958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:G78"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10240,14 +10245,28 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
     </row>
-    <row r="79" spans="1:26" ht="16">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
+    <row r="79" spans="1:26" ht="42">
+      <c r="A79" s="4">
+        <v>215</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="18">
+        <v>44728</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -13603,7 +13622,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D79:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D80:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E82FE8-E274-B541-A5F8-BC6AA1B04FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E0CBED-D574-9042-B8F3-3A5C32AE31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="208">
   <si>
     <t>名称</t>
   </si>
@@ -841,6 +841,17 @@
     <t>也可以用快速排序来解决
 找升序排列 n-k个元素
 快速排序partiton函数知道某一个点的排名</t>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>graph, DFS</t>
+  </si>
+  <si>
+    <t>DFS算法在for循环外记录当前节点
+回溯算法在for循环内记录（这样会感知不到根节点）
+因为回溯算法关注的是树枝而不是节点</t>
   </si>
 </sst>
 </file>
@@ -6958,7 +6969,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:G79"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10287,14 +10298,28 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
     </row>
-    <row r="80" spans="1:26" ht="16">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
+    <row r="80" spans="1:26" ht="42">
+      <c r="A80" s="4">
+        <v>797</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="18">
+        <v>44730</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -13622,7 +13647,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D80:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D81:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E0CBED-D574-9042-B8F3-3A5C32AE31A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD2482-587D-9647-ABA5-90FB9026436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
   <si>
     <t>名称</t>
   </si>
@@ -852,6 +852,17 @@
     <t>DFS算法在for循环外记录当前节点
 回溯算法在for循环内记录（这样会感知不到根节点）
 因为回溯算法关注的是树枝而不是节点</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>本质是判断图是否有环。需要注意：
+1. 图不一定是联通的，需要遍历每一个isVIsited为false的点
+2. 需要引入另外一个boolean[] onPath 来记录当前的路径，当前路径有重复节点的时候才表示成环</t>
   </si>
 </sst>
 </file>
@@ -6968,8 +6979,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:G80"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10340,14 +10351,28 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:26" ht="16">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+    <row r="81" spans="1:26" ht="56">
+      <c r="A81" s="4">
+        <v>207</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="18">
+        <v>44731</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -13647,7 +13672,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D81:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D82:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD2482-587D-9647-ABA5-90FB9026436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896998FC-235B-3042-AC36-4C102331533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="214">
   <si>
     <t>名称</t>
   </si>
@@ -863,6 +863,16 @@
     <t>本质是判断图是否有环。需要注意：
 1. 图不一定是联通的，需要遍历每一个isVIsited为false的点
 2. 需要引入另外一个boolean[] onPath 来记录当前的路径，当前路径有重复节点的时候才表示成环</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>DFS, Topoligical Sorting</t>
+  </si>
+  <si>
+    <t>拓扑排序实际就是图的后序遍历的反转。
+一个人物需要等它依赖的所有任务完成之后再开始执行</t>
   </si>
 </sst>
 </file>
@@ -6980,7 +6990,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:G81"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10393,14 +10403,28 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
     </row>
-    <row r="82" spans="1:26" ht="16">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+    <row r="82" spans="1:26" ht="28">
+      <c r="A82" s="4">
+        <v>210</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="18">
+        <v>44731</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -13672,7 +13696,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D82:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D83:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896998FC-235B-3042-AC36-4C102331533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5FEC78-2943-DD4A-8A34-81BD098D3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="216">
   <si>
     <t>名称</t>
   </si>
@@ -874,6 +874,16 @@
     <t>拓扑排序实际就是图的后序遍历的反转。
 一个人物需要等它依赖的所有任务完成之后再开始执行</t>
   </si>
+  <si>
+    <t>BFS, Topological Sorting</t>
+  </si>
+  <si>
+    <t>1. 构建邻接表
+2. 构建一个indegree数组记录每个节点的入度， indegree[i] 记录节点i的入度
+3. 对BFS队列进行初始化，将入度为0的节点首次装入队列
+4. 开始执行BFS循环，不断弹出队列中的节点，减少相邻节点的入度，并且将入度为0的节点加入队列
+5. 最终如果所有节点都被遍历过说明不成环</t>
+  </si>
 </sst>
 </file>
 
@@ -882,7 +892,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -977,6 +987,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,6 +1100,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6989,8 +7028,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:G82"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10445,14 +10484,28 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
     </row>
-    <row r="83" spans="1:26" ht="16">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+    <row r="83" spans="1:26" ht="98">
+      <c r="A83" s="25">
+        <v>210</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="27">
+        <v>44731</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -13696,7 +13749,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D83:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D84:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5FEC78-2943-DD4A-8A34-81BD098D3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC04C20-1C1A-6841-9A50-1831034906E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
   <si>
     <t>名称</t>
   </si>
@@ -645,6 +645,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -655,6 +656,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>归并排序可以用二叉树后续遍历的思维进行思考</t>
@@ -664,6 +666,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -674,6 +677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>先二分拆开</t>
@@ -683,6 +687,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -693,6 +698,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>然后在便利完左右节点的时候merge起来</t>
@@ -702,6 +708,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -712,6 +719,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge的时候采用双指针合并的办法，合并的时候注意需要新开辟一个辅助数组，不能在原数组上进行合并</t>
@@ -883,6 +891,13 @@
 3. 对BFS队列进行初始化，将入度为0的节点首次装入队列
 4. 开始执行BFS循环，不断弹出队列中的节点，减少相邻节点的入度，并且将入度为0的节点加入队列
 5. 最终如果所有节点都被遍历过说明不成环</t>
+  </si>
+  <si>
+    <t>BFS, DFS</t>
+  </si>
+  <si>
+    <t>也可以使用BFS，在加入节点的时候判断是否是二分图，
+注意得是：isVisited[k] = -isVisited[tmp];</t>
   </si>
 </sst>
 </file>
@@ -904,23 +919,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -929,6 +948,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -942,6 +962,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -950,6 +971,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -957,6 +979,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -965,6 +988,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -973,17 +997,20 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7029,7 +7056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:G83"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10526,14 +10553,28 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
     </row>
-    <row r="84" spans="1:26" ht="16">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
+    <row r="84" spans="1:26" ht="28">
+      <c r="A84" s="4">
+        <v>785</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="18">
+        <v>44732</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -13749,7 +13790,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D84:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D85:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC04C20-1C1A-6841-9A50-1831034906E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122A97E-D907-5045-8B37-25F3D70AF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="220">
   <si>
     <t>名称</t>
   </si>
@@ -899,6 +899,12 @@
     <t>也可以使用BFS，在加入节点的时候判断是否是二分图，
 注意得是：isVisited[k] = -isVisited[tmp];</t>
   </si>
+  <si>
+    <t>Satisfiability of Equality Equations</t>
+  </si>
+  <si>
+    <t>先将==的结合成UF， 然后再判断！=的是否符合条件</t>
+  </si>
 </sst>
 </file>
 
@@ -907,7 +913,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1031,6 +1037,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1054,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1160,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7056,7 +7086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:G84"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10595,14 +10625,28 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
     </row>
-    <row r="85" spans="1:26" ht="16">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
+    <row r="85" spans="1:26">
+      <c r="A85" s="29">
+        <v>990</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="31">
+        <v>44739</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -13790,7 +13834,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D85:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D86:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122A97E-D907-5045-8B37-25F3D70AF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF58984-057A-134B-82C2-0C08E019E332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="223">
   <si>
     <t>名称</t>
   </si>
@@ -904,6 +904,18 @@
   </si>
   <si>
     <t>先将==的结合成UF， 然后再判断！=的是否符合条件</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>先排序，然后用前后双指针来解决，
+可惜排序算法无法将时间复杂度缩到O(n)</t>
+  </si>
+  <si>
+    <t>比较难找到是什么维度的union find.
+需要将index进行集合，利用HashMap判断是否存在consecutive number
+这样就是O(1)的时间复杂度</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,6 +1181,9 @@
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7086,7 +7101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85:G85"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10667,14 +10682,28 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
     </row>
-    <row r="86" spans="1:26" ht="16">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+    <row r="86" spans="1:26" ht="28">
+      <c r="A86" s="29">
+        <v>128</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="31">
+        <v>44740</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -10695,14 +10724,28 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
     </row>
-    <row r="87" spans="1:26" ht="16">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
+    <row r="87" spans="1:26" ht="56">
+      <c r="A87" s="29">
+        <v>128</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="31">
+        <v>44740</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -13834,7 +13877,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D86:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D88:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF58984-057A-134B-82C2-0C08E019E332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02192B59-5F5B-C844-9F30-DA74E91C34E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
   <si>
     <t>名称</t>
   </si>
@@ -916,6 +916,14 @@
     <t>比较难找到是什么维度的union find.
 需要将index进行集合，利用HashMap判断是否存在consecutive number
 这样就是O(1)的时间复杂度</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>岛屿类型的题目都可以考虑使用UF, 由于UF算法的基础类型是int[]
+所以需要将二维矩阵转化为一维 i * n + j
+这道题按照从右下的方向遍历，只用考虑两个方向的值。</t>
   </si>
 </sst>
 </file>
@@ -7100,8 +7108,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:G87"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10766,14 +10774,28 @@
       <c r="Y87" s="13"/>
       <c r="Z87" s="13"/>
     </row>
-    <row r="88" spans="1:26" ht="16">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
+    <row r="88" spans="1:26" ht="42">
+      <c r="A88" s="29">
+        <v>200</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="31">
+        <v>44741</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -13877,7 +13899,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D88:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D89:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02192B59-5F5B-C844-9F30-DA74E91C34E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CDD69B-3552-B949-A6F6-113750A4F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="227">
   <si>
     <t>名称</t>
   </si>
@@ -924,6 +924,13 @@
     <t>岛屿类型的题目都可以考虑使用UF, 由于UF算法的基础类型是int[]
 所以需要将二维矩阵转化为一维 i * n + j
 这道题按照从右下的方向遍历，只用考虑两个方向的值。</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>UF 算法可以非常方便计算出两个node是否在同一个连通分量上
+UF里面的count可以记录当前连通分量的个数。</t>
   </si>
 </sst>
 </file>
@@ -7109,7 +7116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88:G88"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10816,14 +10823,28 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
     </row>
-    <row r="89" spans="1:26" ht="16">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
+    <row r="89" spans="1:26" ht="28">
+      <c r="A89" s="29">
+        <v>261</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="31">
+        <v>44750</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
@@ -13899,7 +13920,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D89:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D90:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CDD69B-3552-B949-A6F6-113750A4F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F280EA-6791-1045-9CD7-08CBFBAA79EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="231">
   <si>
     <t>名称</t>
   </si>
@@ -931,6 +931,19 @@
   <si>
     <t>UF 算法可以非常方便计算出两个node是否在同一个连通分量上
 UF里面的count可以记录当前连通分量的个数。</t>
+  </si>
+  <si>
+    <t>Connecting Cities With Minimum Cost</t>
+  </si>
+  <si>
+    <t>Kruskal, Union Find</t>
+  </si>
+  <si>
+    <t>使用贪心算法找到权重最大的生成树</t>
+  </si>
+  <si>
+    <t>夏雨笛</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1102,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7116,7 +7132,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:G89"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10865,14 +10881,28 @@
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
     </row>
-    <row r="90" spans="1:26" ht="16">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+    <row r="90" spans="1:26">
+      <c r="A90" s="29">
+        <v>1135</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="31">
+        <v>44751</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>230</v>
+      </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -13920,7 +13950,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D90:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D91:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F280EA-6791-1045-9CD7-08CBFBAA79EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42B78D-CF6D-B645-BC7B-F53BF89A0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="233">
   <si>
     <t>名称</t>
   </si>
@@ -944,6 +944,12 @@
   <si>
     <t>夏雨笛</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>先用O(n)计算出每两个点之间的距离，然后再用Kruskal</t>
   </si>
 </sst>
 </file>
@@ -1081,6 +1087,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1089,6 +1096,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7132,7 +7140,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10923,14 +10931,28 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
     </row>
-    <row r="91" spans="1:26" ht="16">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+    <row r="91" spans="1:26">
+      <c r="A91" s="4">
+        <v>1584</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="18">
+        <v>44753</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
@@ -13950,7 +13972,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D91:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D92:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42B78D-CF6D-B645-BC7B-F53BF89A0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B3BEF-C9FC-A446-8C46-126EAA00B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="236">
   <si>
     <t>名称</t>
   </si>
@@ -950,6 +950,15 @@
   </si>
   <si>
     <t>先用O(n)计算出每两个点之间的距离，然后再用Kruskal</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Dijkatra</t>
+  </si>
+  <si>
+    <t>最短路径算法。建立State类记录id和dist，然后用优先队列进行bfs</t>
   </si>
 </sst>
 </file>
@@ -7140,7 +7149,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:G91"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10973,14 +10982,28 @@
       <c r="Y91" s="13"/>
       <c r="Z91" s="13"/>
     </row>
-    <row r="92" spans="1:26" ht="16">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+    <row r="92" spans="1:26">
+      <c r="A92" s="4">
+        <v>743</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="18">
+        <v>44754</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -13972,7 +13995,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D92:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D93:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B3BEF-C9FC-A446-8C46-126EAA00B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E723A-A2A1-4D47-99D1-7BCF8E587062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
   <si>
     <t>名称</t>
   </si>
@@ -959,6 +959,15 @@
   </si>
   <si>
     <t>最短路径算法。建立State类记录id和dist，然后用优先队列进行bfs</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>仍然是找最小路径的问题，此时最小路径并不是和了，而是路径中最大的绝对值。</t>
   </si>
 </sst>
 </file>
@@ -7149,7 +7158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92:G92"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11024,14 +11033,28 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
     </row>
-    <row r="93" spans="1:26" ht="16">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+    <row r="93" spans="1:26">
+      <c r="A93" s="4">
+        <v>1631</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="18">
+        <v>44754</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -13995,7 +14018,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D93:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D94:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E723A-A2A1-4D47-99D1-7BCF8E587062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CC45B-997C-D342-B15D-645450583F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="241">
   <si>
     <t>名称</t>
   </si>
@@ -969,6 +969,12 @@
   <si>
     <t>仍然是找最小路径的问题，此时最小路径并不是和了，而是路径中最大的绝对值。</t>
   </si>
+  <si>
+    <t>Path with Maximum Probability</t>
+  </si>
+  <si>
+    <t>同上，只是最短路径变形为最大概率。有向图变成无向图，同样使用Dijkstra方法</t>
+  </si>
 </sst>
 </file>
 
@@ -977,7 +983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1118,6 +1124,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1141,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,6 +1261,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7158,7 +7188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:G93"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11075,14 +11105,28 @@
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
     </row>
-    <row r="94" spans="1:26" ht="16">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+    <row r="94" spans="1:26">
+      <c r="A94" s="34">
+        <v>1514</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="36">
+        <v>44755</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -14018,7 +14062,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D94:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D95:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CC45B-997C-D342-B15D-645450583F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839FB4D-29A6-9D47-BF45-5206C240238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="244">
   <si>
     <t>名称</t>
   </si>
@@ -974,6 +974,15 @@
   </si>
   <si>
     <t>同上，只是最短路径变形为最大概率。有向图变成无向图，同样使用Dijkstra方法</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>BackTrace</t>
+  </si>
+  <si>
+    <t>回溯方法：在for循环里面作出选择&amp;撤销选择；而dfs是在for循环外面进行</t>
   </si>
 </sst>
 </file>
@@ -7188,7 +7197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:G94"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11147,14 +11156,28 @@
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
     </row>
-    <row r="95" spans="1:26" ht="16">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
+    <row r="95" spans="1:26">
+      <c r="A95" s="34">
+        <v>46</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="36">
+        <v>44755</v>
+      </c>
+      <c r="F95" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -14062,7 +14085,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D95:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D96:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839FB4D-29A6-9D47-BF45-5206C240238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D40DF-5138-7D40-8834-2FE328E0BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
   <si>
     <t>名称</t>
   </si>
@@ -983,6 +983,13 @@
   </si>
   <si>
     <t>回溯方法：在for循环里面作出选择&amp;撤销选择；而dfs是在for循环外面进行</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>backTrace 模版可以套用。难点在于怎么判断是否在Q的左下角右下角的斜线上
+可以用indexList记录前面几行的Q的index，遍历到一行line的时候算出这一行可以摆放Q的位置</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,6 +1287,9 @@
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7196,8 +7206,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:G95"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11198,14 +11208,28 @@
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
     </row>
-    <row r="96" spans="1:26" ht="16">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
+    <row r="96" spans="1:26" ht="56">
+      <c r="A96" s="34">
+        <v>51</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="36">
+        <v>44756</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -14085,7 +14109,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D96:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D97:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D40DF-5138-7D40-8834-2FE328E0BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF0BC3-33B8-D747-945D-519AD3166F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="250">
   <si>
     <t>名称</t>
   </si>
@@ -990,6 +990,19 @@
   <si>
     <t>backTrace 模版可以套用。难点在于怎么判断是否在Q的左下角右下角的斜线上
 可以用indexList记录前面几行的Q的index，遍历到一行line的时候算出这一行可以摆放Q的位置</t>
+  </si>
+  <si>
+    <t>Partition to K Equal Sum Subsets</t>
+  </si>
+  <si>
+    <t>少量多次的选择复杂度比较低，宁可多做几次选择，
+每次选择的范围要小</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>集合--无重不可重复选</t>
   </si>
 </sst>
 </file>
@@ -7207,7 +7220,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:G96"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11250,14 +11263,28 @@
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
     </row>
-    <row r="97" spans="1:26" ht="16">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
+    <row r="97" spans="1:26" ht="28">
+      <c r="A97" s="34">
+        <v>698</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="36">
+        <v>44763</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -11278,14 +11305,28 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
     </row>
-    <row r="98" spans="1:26" ht="16">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
+    <row r="98" spans="1:26">
+      <c r="A98" s="34">
+        <v>78</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="36">
+        <v>44764</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -14109,7 +14150,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D97:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D99:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF0BC3-33B8-D747-945D-519AD3166F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39DD18-CB95-B940-8611-15E6E0B51864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="252">
   <si>
     <t>名称</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>集合--无重不可重复选</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>组合（size一定）--无重不可重复选</t>
   </si>
 </sst>
 </file>
@@ -7219,8 +7225,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:G98"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11347,14 +11353,28 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
     </row>
-    <row r="99" spans="1:26" ht="16">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+    <row r="99" spans="1:26">
+      <c r="A99" s="34">
+        <v>77</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="36">
+        <v>44764</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -14150,7 +14170,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D99:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D100:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39DD18-CB95-B940-8611-15E6E0B51864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3B9AB-A041-894D-B273-43B0B1F5190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="254">
   <si>
     <t>名称</t>
   </si>
@@ -1009,6 +1009,13 @@
   </si>
   <si>
     <t>组合（size一定）--无重不可重复选</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>集合--有重复不可重复选
+注意剪枝策略，同一个层级，如果已经遍历过同样的数后面就不需要遍历了（可以用位运算标志那个是遍历过的）</t>
   </si>
 </sst>
 </file>
@@ -7225,8 +7232,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99:G99"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11395,14 +11402,28 @@
       <c r="Y99" s="13"/>
       <c r="Z99" s="13"/>
     </row>
-    <row r="100" spans="1:26" ht="16">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
+    <row r="100" spans="1:26" ht="42">
+      <c r="A100" s="34">
+        <v>90</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="36">
+        <v>44764</v>
+      </c>
+      <c r="F100" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -14170,7 +14191,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D100:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D101:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3B9AB-A041-894D-B273-43B0B1F5190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B0A1D5-4084-C046-936C-A37CCE000B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
   <si>
     <t>名称</t>
   </si>
@@ -1016,6 +1016,12 @@
   <si>
     <t>集合--有重复不可重复选
 注意剪枝策略，同一个层级，如果已经遍历过同样的数后面就不需要遍历了（可以用位运算标志那个是遍历过的）</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>组合--有重复不可重复选</t>
   </si>
 </sst>
 </file>
@@ -7232,8 +7238,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:G100"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11444,14 +11450,28 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
     </row>
-    <row r="101" spans="1:26" ht="16">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
+    <row r="101" spans="1:26">
+      <c r="A101" s="34">
+        <v>40</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="36">
+        <v>44765</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G101" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
@@ -14191,7 +14211,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D101:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D102:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B0A1D5-4084-C046-936C-A37CCE000B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC4E22-C33D-A342-9388-CC0AE868E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="258">
   <si>
     <t>名称</t>
   </si>
@@ -1022,6 +1022,15 @@
   </si>
   <si>
     <t>组合--有重复不可重复选</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>排列--有重复
+先排序，将value相等的element排在一起
+然后在for循环里面新增剪枝步骤，判断!isVisited[i-1]
+对于相同的元素，只有前一个出现了，后一个才能出现</t>
   </si>
 </sst>
 </file>
@@ -7239,7 +7248,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101:G101"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11492,14 +11501,28 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
     </row>
-    <row r="102" spans="1:26" ht="16">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
+    <row r="102" spans="1:26" ht="56">
+      <c r="A102" s="34">
+        <v>47</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="36">
+        <v>44770</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -14211,7 +14234,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D102:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D103:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC4E22-C33D-A342-9388-CC0AE868E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875D091-CAF1-EC4F-AEA2-ECD6F61904F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="260">
   <si>
     <t>名称</t>
   </si>
@@ -1031,6 +1031,12 @@
 先排序，将value相等的element排在一起
 然后在for循环里面新增剪枝步骤，判断!isVisited[i-1]
 对于相同的元素，只有前一个出现了，后一个才能出现</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>组合--元素无重复，可重复选</t>
   </si>
 </sst>
 </file>
@@ -7247,8 +7253,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:G102"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11543,14 +11549,28 @@
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
     </row>
-    <row r="103" spans="1:26" ht="16">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
+    <row r="103" spans="1:26">
+      <c r="A103" s="34">
+        <v>39</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="36">
+        <v>44771</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -14234,7 +14254,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D103:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D104:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875D091-CAF1-EC4F-AEA2-ECD6F61904F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7A459-A261-FC45-84B8-AAD42FA36F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="262">
   <si>
     <t>名称</t>
   </si>
@@ -1037,6 +1037,12 @@
   </si>
   <si>
     <t>组合--元素无重复，可重复选</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>dfs 返回int类型的area</t>
   </si>
 </sst>
 </file>
@@ -7254,7 +7260,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:G103"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11591,14 +11597,28 @@
       <c r="Y103" s="13"/>
       <c r="Z103" s="13"/>
     </row>
-    <row r="104" spans="1:26" ht="16">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+    <row r="104" spans="1:26">
+      <c r="A104" s="34">
+        <v>695</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="36">
+        <v>44771</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
@@ -14254,7 +14274,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D104:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D105:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7A459-A261-FC45-84B8-AAD42FA36F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669A3AA-7FD6-5F45-8AF5-3D453E0F53F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="264">
   <si>
     <t>名称</t>
   </si>
@@ -1043,6 +1043,13 @@
   </si>
   <si>
     <t>dfs 返回int类型的area</t>
+  </si>
+  <si>
+    <t>Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>需要记录遍历的路径，形成一个String进行记录
+1，2，3，4表示遍历的方向，-1，-2，-3，-4表示回溯的方向</t>
   </si>
 </sst>
 </file>
@@ -7259,8 +7266,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:G104"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11639,14 +11646,28 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
     </row>
-    <row r="105" spans="1:26" ht="16">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
+    <row r="105" spans="1:26" ht="28">
+      <c r="A105" s="34">
+        <v>694</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="36">
+        <v>44771</v>
+      </c>
+      <c r="F105" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -14274,7 +14295,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D105:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D106:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669A3AA-7FD6-5F45-8AF5-3D453E0F53F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B5507-FA1C-5C41-BA43-2F138F429329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="276">
   <si>
     <t>名称</t>
   </si>
@@ -1050,6 +1050,43 @@
   <si>
     <t>需要记录遍历的路径，形成一个String进行记录
 1，2，3，4表示遍历的方向，-1，-2，-3，-4表示回溯的方向</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>DFS,dp</t>
+  </si>
+  <si>
+    <t>递归求解dp, 相当于在求解过程中更新memo</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>dp: O(n^2)</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>dp / binary search</t>
+  </si>
+  <si>
+    <t>需要先将宽升序排列，宽相等的条件下，高再进行降序排列
+根据高的数组来找最大升序子串</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>如果只需要用到前一个dp的值，可以不用数组，直接用两个int代替</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1241,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1212,6 +1250,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7266,8 +7305,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:G105"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11688,14 +11727,28 @@
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
     </row>
-    <row r="106" spans="1:26" ht="16">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
+    <row r="106" spans="1:26">
+      <c r="A106" s="4">
+        <v>931</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="18">
+        <v>44787</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -11716,14 +11769,28 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
     </row>
-    <row r="107" spans="1:26" ht="16">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+    <row r="107" spans="1:26">
+      <c r="A107" s="4">
+        <v>300</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="18">
+        <v>44788</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
@@ -11744,14 +11811,28 @@
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
     </row>
-    <row r="108" spans="1:26" ht="16">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
+    <row r="108" spans="1:26">
+      <c r="A108" s="4">
+        <v>300</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="18">
+        <v>44790</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
@@ -11772,14 +11853,28 @@
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
     </row>
-    <row r="109" spans="1:26" ht="16">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
+    <row r="109" spans="1:26" ht="28">
+      <c r="A109" s="4">
+        <v>354</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="18">
+        <v>44790</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
@@ -11800,14 +11895,28 @@
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
     </row>
-    <row r="110" spans="1:26" ht="16">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
+    <row r="110" spans="1:26">
+      <c r="A110" s="4">
+        <v>53</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="18">
+        <v>44790</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -14295,7 +14404,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D106:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D111:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B5507-FA1C-5C41-BA43-2F138F429329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB56F6-3C85-264B-8C4F-9E155CA8990F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="279">
   <si>
     <t>名称</t>
   </si>
@@ -1087,6 +1087,17 @@
   </si>
   <si>
     <t>如果只需要用到前一个dp的值，可以不用数组，直接用两个int代替</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>dp, brute force</t>
+  </si>
+  <si>
+    <t>暴力算法+memo优化
+解决两个字符串的动态规划问题，一般用两个指针i,j分别指向两个字符串的最后
+不断往前移动，缩小问题规模</t>
   </si>
 </sst>
 </file>
@@ -7305,8 +7316,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110:G110"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11937,14 +11948,28 @@
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
     </row>
-    <row r="111" spans="1:26" ht="16">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
+    <row r="111" spans="1:26" ht="56">
+      <c r="A111" s="4">
+        <v>72</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="18">
+        <v>44792</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
@@ -14404,7 +14429,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D111:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D112:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB56F6-3C85-264B-8C4F-9E155CA8990F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6095401-B2C0-154C-B21C-B11916BCAB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="282">
   <si>
     <t>名称</t>
   </si>
@@ -1098,6 +1098,16 @@
     <t>暴力算法+memo优化
 解决两个字符串的动态规划问题，一般用两个指针i,j分别指向两个字符串的最后
 不断往前移动，缩小问题规模</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Top Down DP，Bottom up DP</t>
+  </si>
+  <si>
+    <t>1. 递归-》memo；同上题
+2. dp table 注意设置dump node</t>
   </si>
 </sst>
 </file>
@@ -7316,8 +7326,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111:G111"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11990,14 +12000,28 @@
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
     </row>
-    <row r="112" spans="1:26" ht="16">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
+    <row r="112" spans="1:26" ht="28">
+      <c r="A112" s="4">
+        <v>1143</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="18">
+        <v>44792</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -14429,7 +14453,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D112:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D113:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6095401-B2C0-154C-B21C-B11916BCAB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1028F46-4C26-B348-999E-080CB0D7B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>名称</t>
   </si>
@@ -1108,6 +1108,18 @@
   <si>
     <t>1. 递归-》memo；同上题
 2. dp table 注意设置dump node</t>
+  </si>
+  <si>
+    <t>Shifting Letters II</t>
+  </si>
+  <si>
+    <t>array of difference</t>
+  </si>
+  <si>
+    <t>对某一个区间进行频繁加减的时候想到用差分数组。
+如果对每一个元素for循环相加，时间复杂度是O(n)
+但是如果是差分数组，时间复杂度是O(1)
+差分数组的长度可以是原数组长度+1</t>
   </si>
 </sst>
 </file>
@@ -7326,8 +7338,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112:G112"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -12042,14 +12054,28 @@
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
     </row>
-    <row r="113" spans="1:26" ht="16">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
+    <row r="113" spans="1:26" ht="56">
+      <c r="A113" s="4">
+        <v>2381</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="18">
+        <v>44793</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
@@ -14453,7 +14479,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D113:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D114:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1028F46-4C26-B348-999E-080CB0D7B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F937F7-2281-FD42-AFAC-5474D57765DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="760" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资料分享" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="288">
   <si>
     <t>名称</t>
   </si>
@@ -1121,6 +1121,17 @@
 但是如果是差分数组，时间复杂度是O(1)
 差分数组的长度可以是原数组长度+1</t>
   </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Top-Down Dp和Bottom UP DP 都可以解决；
+Top-Down Dp需要注意index从数组尾部开始
+Bottom up Dp需要注意initial state的设置</t>
+  </si>
 </sst>
 </file>
 
@@ -1129,7 +1140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1287,6 +1298,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1310,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1447,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7338,8 +7376,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:G113"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114:G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -12096,14 +12134,28 @@
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
     </row>
-    <row r="114" spans="1:26" ht="16">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
+    <row r="114" spans="1:26" ht="42">
+      <c r="A114" s="38">
+        <v>583</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="40">
+        <v>44797</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -14479,7 +14531,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D114:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D115:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F937F7-2281-FD42-AFAC-5474D57765DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871906AE-3FD3-4544-B1F6-DD90ADA683B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="760" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="291">
   <si>
     <t>名称</t>
   </si>
@@ -1131,6 +1131,16 @@
     <t>Top-Down Dp和Bottom UP DP 都可以解决；
 Top-Down Dp需要注意index从数组尾部开始
 Bottom up Dp需要注意initial state的设置</t>
+  </si>
+  <si>
+    <t>Minimum ASCII Delete Sum for Two Strings</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>01背包问题，两个for循环
+分析第i个元素是否加入背包的价值变化</t>
   </si>
 </sst>
 </file>
@@ -7377,7 +7387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114:G114"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -12176,14 +12186,28 @@
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
     </row>
-    <row r="115" spans="1:26" ht="16">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
+    <row r="115" spans="1:26">
+      <c r="A115" s="38">
+        <v>712</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="40">
+        <v>44798</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
@@ -12204,14 +12228,28 @@
       <c r="Y115" s="13"/>
       <c r="Z115" s="13"/>
     </row>
-    <row r="116" spans="1:26" ht="16">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
+    <row r="116" spans="1:26" ht="28">
+      <c r="A116" s="38">
+        <v>416</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="40">
+        <v>44799</v>
+      </c>
+      <c r="F116" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -14531,7 +14569,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D115:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D117:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871906AE-3FD3-4544-B1F6-DD90ADA683B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B817C-3003-B94A-8B0C-3266374EC80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="760" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="294">
   <si>
     <t>名称</t>
   </si>
@@ -1141,6 +1141,15 @@
   <si>
     <t>01背包问题，两个for循环
 分析第i个元素是否加入背包的价值变化</t>
+  </si>
+  <si>
+    <t>Coin Change 2</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>完全背包问题；可选item的数量是无限的；可以压缩到一维</t>
   </si>
 </sst>
 </file>
@@ -7386,8 +7395,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116:G116"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117:G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -12270,14 +12279,28 @@
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
     </row>
-    <row r="117" spans="1:26" ht="16">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
+    <row r="117" spans="1:26">
+      <c r="A117" s="38">
+        <v>518</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="40">
+        <v>44799</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
@@ -14569,7 +14592,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D117:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D118:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B817C-3003-B94A-8B0C-3266374EC80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18415D-1F8F-DA4F-A1A4-4D353F4F984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="760" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="298">
   <si>
     <t>名称</t>
   </si>
@@ -1150,6 +1150,18 @@
   </si>
   <si>
     <t>完全背包问题；可选item的数量是无限的；可以压缩到一维</t>
+  </si>
+  <si>
+    <t>188*</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP </t>
+  </si>
+  <si>
+    <t>注意初始值的设置</t>
   </si>
 </sst>
 </file>
@@ -7396,7 +7408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117:G117"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -12321,14 +12333,28 @@
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
     </row>
-    <row r="118" spans="1:26" ht="16">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
+    <row r="118" spans="1:26">
+      <c r="A118" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="40">
+        <v>44799</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>18</v>
+      </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
@@ -14592,7 +14618,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D118:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="D2:D5 D119:D198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18415D-1F8F-DA4F-A1A4-4D353F4F984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE084A01-F01C-8845-A0A3-34B4B96E26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="760" windowWidth="25600" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17580" windowHeight="14140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资料分享" sheetId="1" r:id="rId1"/>
@@ -955,9 +955,6 @@
     <t>Network Delay Time</t>
   </si>
   <si>
-    <t>Dijkatra</t>
-  </si>
-  <si>
     <t>最短路径算法。建立State类记录id和dist，然后用优先队列进行bfs</t>
   </si>
   <si>
@@ -1162,6 +1159,10 @@
   </si>
   <si>
     <t>注意初始值的设置</t>
+  </si>
+  <si>
+    <t>Dijkatra</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7407,8 +7408,8 @@
   <dimension ref="A1:Z198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:G118"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11249,7 +11250,7 @@
         <v>233</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>21</v>
@@ -11258,7 +11259,7 @@
         <v>44754</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>18</v>
@@ -11288,10 +11289,10 @@
         <v>1631</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>21</v>
@@ -11300,7 +11301,7 @@
         <v>44754</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>18</v>
@@ -11330,10 +11331,10 @@
         <v>1514</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D94" s="35" t="s">
         <v>21</v>
@@ -11342,7 +11343,7 @@
         <v>44755</v>
       </c>
       <c r="F94" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G94" s="34" t="s">
         <v>18</v>
@@ -11372,10 +11373,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="D95" s="35" t="s">
         <v>21</v>
@@ -11384,7 +11385,7 @@
         <v>44755</v>
       </c>
       <c r="F95" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G95" s="34" t="s">
         <v>18</v>
@@ -11414,10 +11415,10 @@
         <v>51</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" s="35" t="s">
         <v>16</v>
@@ -11426,7 +11427,7 @@
         <v>44756</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G96" s="34" t="s">
         <v>18</v>
@@ -11456,10 +11457,10 @@
         <v>698</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>21</v>
@@ -11468,7 +11469,7 @@
         <v>44763</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G97" s="34" t="s">
         <v>18</v>
@@ -11498,10 +11499,10 @@
         <v>78</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>21</v>
@@ -11510,7 +11511,7 @@
         <v>44764</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G98" s="34" t="s">
         <v>18</v>
@@ -11540,10 +11541,10 @@
         <v>77</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>21</v>
@@ -11552,7 +11553,7 @@
         <v>44764</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G99" s="34" t="s">
         <v>18</v>
@@ -11582,10 +11583,10 @@
         <v>90</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>21</v>
@@ -11594,7 +11595,7 @@
         <v>44764</v>
       </c>
       <c r="F100" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>18</v>
@@ -11624,10 +11625,10 @@
         <v>40</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>21</v>
@@ -11636,7 +11637,7 @@
         <v>44765</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G101" s="34" t="s">
         <v>18</v>
@@ -11666,10 +11667,10 @@
         <v>47</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D102" s="35" t="s">
         <v>21</v>
@@ -11678,7 +11679,7 @@
         <v>44770</v>
       </c>
       <c r="F102" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G102" s="34" t="s">
         <v>18</v>
@@ -11708,10 +11709,10 @@
         <v>39</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D103" s="35" t="s">
         <v>21</v>
@@ -11720,7 +11721,7 @@
         <v>44771</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G103" s="34" t="s">
         <v>18</v>
@@ -11750,7 +11751,7 @@
         <v>695</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C104" s="34" t="s">
         <v>209</v>
@@ -11762,7 +11763,7 @@
         <v>44771</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G104" s="34" t="s">
         <v>18</v>
@@ -11792,7 +11793,7 @@
         <v>694</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C105" s="34" t="s">
         <v>209</v>
@@ -11804,7 +11805,7 @@
         <v>44771</v>
       </c>
       <c r="F105" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G105" s="34" t="s">
         <v>18</v>
@@ -11834,10 +11835,10 @@
         <v>931</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>21</v>
@@ -11846,7 +11847,7 @@
         <v>44787</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>18</v>
@@ -11876,10 +11877,10 @@
         <v>300</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>21</v>
@@ -11888,7 +11889,7 @@
         <v>44788</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>18</v>
@@ -11918,7 +11919,7 @@
         <v>300</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>85</v>
@@ -11930,7 +11931,7 @@
         <v>44790</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>18</v>
@@ -11960,10 +11961,10 @@
         <v>354</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>16</v>
@@ -11972,7 +11973,7 @@
         <v>44790</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>18</v>
@@ -12002,10 +12003,10 @@
         <v>53</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>69</v>
@@ -12014,7 +12015,7 @@
         <v>44790</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>18</v>
@@ -12044,10 +12045,10 @@
         <v>72</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>16</v>
@@ -12056,7 +12057,7 @@
         <v>44792</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>18</v>
@@ -12086,10 +12087,10 @@
         <v>1143</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>21</v>
@@ -12098,7 +12099,7 @@
         <v>44792</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>18</v>
@@ -12128,10 +12129,10 @@
         <v>2381</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>21</v>
@@ -12140,7 +12141,7 @@
         <v>44793</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>18</v>
@@ -12170,10 +12171,10 @@
         <v>583</v>
       </c>
       <c r="B114" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="38" t="s">
         <v>285</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>286</v>
       </c>
       <c r="D114" s="39" t="s">
         <v>21</v>
@@ -12182,7 +12183,7 @@
         <v>44797</v>
       </c>
       <c r="F114" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G114" s="38" t="s">
         <v>18</v>
@@ -12212,10 +12213,10 @@
         <v>712</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D115" s="39" t="s">
         <v>21</v>
@@ -12254,10 +12255,10 @@
         <v>416</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>21</v>
@@ -12266,7 +12267,7 @@
         <v>44799</v>
       </c>
       <c r="F116" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>18</v>
@@ -12296,10 +12297,10 @@
         <v>518</v>
       </c>
       <c r="B117" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="C117" s="38" t="s">
-        <v>292</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>21</v>
@@ -12308,7 +12309,7 @@
         <v>44799</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>18</v>
@@ -12335,13 +12336,13 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B118" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="C118" s="38" t="s">
         <v>295</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>296</v>
       </c>
       <c r="D118" s="39" t="s">
         <v>16</v>
@@ -12350,7 +12351,7 @@
         <v>44799</v>
       </c>
       <c r="F118" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G118" s="38" t="s">
         <v>18</v>

--- a/打卡统计&&资料分享.xlsx
+++ b/打卡统计&&资料分享.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiayudi/Desktop/2021leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE084A01-F01C-8845-A0A3-34B4B96E26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC0E47-9FF4-2548-8F75-C310812EB122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17580" windowHeight="14140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资料分享" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="6" r:id="rId2"/>
+    <sheet name="sliding window" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="298">
   <si>
     <t>名称</t>
   </si>
@@ -1334,6 +1335,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1342,6 +1344,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7407,9 +7410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -14625,4 +14628,67 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85943EC0-7F9E-4545-8E6A-B4DD5A685EC3}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>